--- a/Static Evaluation/Swift-Java/stringResults.xlsx
+++ b/Static Evaluation/Swift-Java/stringResults.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="622" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="821" uniqueCount="200">
   <si>
     <t>equals_Wrapper</t>
   </si>
@@ -613,6 +613,12 @@
   </si>
   <si>
     <t>http://stackoverflow.com/questions/11700987</t>
+  </si>
+  <si>
+    <t>YES</t>
+  </si>
+  <si>
+    <t>NO</t>
   </si>
 </sst>
 </file>
@@ -1421,8 +1427,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C720"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A691" workbookViewId="0">
-      <selection activeCell="B709" sqref="B709:C720"/>
+    <sheetView tabSelected="1" topLeftCell="A689" workbookViewId="0">
+      <selection activeCell="C700" sqref="C700"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1455,6 +1461,9 @@
       <c r="B5">
         <v>1</v>
       </c>
+      <c r="C5" t="s">
+        <v>198</v>
+      </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -1463,6 +1472,9 @@
       <c r="B6">
         <v>2</v>
       </c>
+      <c r="C6" t="s">
+        <v>198</v>
+      </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -1471,6 +1483,9 @@
       <c r="B7">
         <v>3</v>
       </c>
+      <c r="C7" t="s">
+        <v>198</v>
+      </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -1479,6 +1494,9 @@
       <c r="B8">
         <v>4</v>
       </c>
+      <c r="C8" t="s">
+        <v>198</v>
+      </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -1487,6 +1505,9 @@
       <c r="B9">
         <v>5</v>
       </c>
+      <c r="C9" t="s">
+        <v>198</v>
+      </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -1495,6 +1516,9 @@
       <c r="B10">
         <v>6</v>
       </c>
+      <c r="C10" t="s">
+        <v>198</v>
+      </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -1503,6 +1527,9 @@
       <c r="B11">
         <v>7</v>
       </c>
+      <c r="C11" t="s">
+        <v>198</v>
+      </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -1511,6 +1538,9 @@
       <c r="B12">
         <v>8</v>
       </c>
+      <c r="C12" t="s">
+        <v>198</v>
+      </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -1524,9 +1554,9 @@
       <c r="B15">
         <v>1</v>
       </c>
-      <c r="C15">
+      <c r="C15" t="str">
         <f>C5</f>
-        <v>0</v>
+        <v>YES</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -1536,9 +1566,9 @@
       <c r="B16">
         <v>2</v>
       </c>
-      <c r="C16">
+      <c r="C16" t="str">
         <f>C6</f>
-        <v>0</v>
+        <v>YES</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -1554,9 +1584,9 @@
         <f>INDEX(B5:B12,MATCH(A19,A5:A12,0))</f>
         <v>7</v>
       </c>
-      <c r="C19">
+      <c r="C19" t="str">
         <f>INDEX(C5:C12,MATCH(A19,A5:A12,0))</f>
-        <v>0</v>
+        <v>YES</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -1567,9 +1597,9 @@
         <f>INDEX(B5:B12,MATCH(A20,A5:A12,0))</f>
         <v>1</v>
       </c>
-      <c r="C20">
+      <c r="C20" t="str">
         <f>INDEX(C5:C12,MATCH(A20,A5:A12,0))</f>
-        <v>0</v>
+        <v>YES</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -1580,9 +1610,9 @@
         <f>INDEX(B5:B12,MATCH(A21,A5:A12,0))</f>
         <v>6</v>
       </c>
-      <c r="C21">
+      <c r="C21" t="str">
         <f>INDEX(C5:C12,MATCH(A21,A5:A12,0))</f>
-        <v>0</v>
+        <v>YES</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -1593,9 +1623,9 @@
         <f>INDEX(B5:B12,MATCH(A22,A5:A12,0))</f>
         <v>3</v>
       </c>
-      <c r="C22">
+      <c r="C22" t="str">
         <f>INDEX(C5:C12,MATCH(A22,A5:A12,0))</f>
-        <v>0</v>
+        <v>YES</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -1606,9 +1636,9 @@
         <f>INDEX(B5:B12,MATCH(A23,A5:A12,0))</f>
         <v>2</v>
       </c>
-      <c r="C23">
+      <c r="C23" t="str">
         <f>INDEX(C5:C12,MATCH(A23,A5:A12,0))</f>
-        <v>0</v>
+        <v>YES</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -1619,9 +1649,9 @@
         <f>INDEX(B5:B12,MATCH(A24,A5:A12,0))</f>
         <v>5</v>
       </c>
-      <c r="C24">
+      <c r="C24" t="str">
         <f>INDEX(C5:C12,MATCH(A24,A5:A12,0))</f>
-        <v>0</v>
+        <v>YES</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -1632,9 +1662,9 @@
         <f>INDEX(B5:B12,MATCH(A25,A5:A12,0))</f>
         <v>4</v>
       </c>
-      <c r="C25">
+      <c r="C25" t="str">
         <f>INDEX(C5:C12,MATCH(A25,A5:A12,0))</f>
-        <v>0</v>
+        <v>YES</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -1645,9 +1675,9 @@
         <f>INDEX(B5:B12,MATCH(A26,A5:A12,0))</f>
         <v>8</v>
       </c>
-      <c r="C26">
+      <c r="C26" t="str">
         <f>INDEX(C5:C12,MATCH(A26,A5:A12,0))</f>
-        <v>0</v>
+        <v>YES</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -1675,10 +1705,13 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="B34">
         <v>1</v>
+      </c>
+      <c r="C34" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
@@ -1688,6 +1721,9 @@
       <c r="B35">
         <v>2</v>
       </c>
+      <c r="C35" t="s">
+        <v>199</v>
+      </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
@@ -1696,6 +1732,9 @@
       <c r="B36">
         <v>3</v>
       </c>
+      <c r="C36" t="s">
+        <v>199</v>
+      </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
@@ -1704,6 +1743,9 @@
       <c r="B37">
         <v>4</v>
       </c>
+      <c r="C37" t="s">
+        <v>199</v>
+      </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
@@ -1712,6 +1754,9 @@
       <c r="B38">
         <v>5</v>
       </c>
+      <c r="C38" t="s">
+        <v>199</v>
+      </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
@@ -1720,6 +1765,9 @@
       <c r="B39">
         <v>6</v>
       </c>
+      <c r="C39" t="s">
+        <v>199</v>
+      </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
@@ -1728,6 +1776,9 @@
       <c r="B40">
         <v>7</v>
       </c>
+      <c r="C40" t="s">
+        <v>199</v>
+      </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
@@ -1736,6 +1787,9 @@
       <c r="B41">
         <v>8</v>
       </c>
+      <c r="C41" t="s">
+        <v>198</v>
+      </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
@@ -1749,9 +1803,9 @@
       <c r="B44">
         <v>1</v>
       </c>
-      <c r="C44">
+      <c r="C44" t="str">
         <f>C34</f>
-        <v>0</v>
+        <v>YES</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
@@ -1761,9 +1815,9 @@
       <c r="B45">
         <v>2</v>
       </c>
-      <c r="C45">
+      <c r="C45" t="str">
         <f>C35</f>
-        <v>0</v>
+        <v>NO</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
@@ -1773,15 +1827,15 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="B48">
         <f>INDEX(B34:B41,MATCH(A48,A34:A41,0))</f>
-        <v>3</v>
-      </c>
-      <c r="C48">
+        <v>1</v>
+      </c>
+      <c r="C48" t="str">
         <f>INDEX(C34:C41,MATCH(A48,A34:A41,0))</f>
-        <v>0</v>
+        <v>YES</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
@@ -1792,9 +1846,9 @@
         <f>INDEX(B34:B41,MATCH(A49,A34:A41,0))</f>
         <v>8</v>
       </c>
-      <c r="C49">
+      <c r="C49" t="str">
         <f>INDEX(C34:C41,MATCH(A49,A34:A41,0))</f>
-        <v>0</v>
+        <v>YES</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
@@ -1805,22 +1859,22 @@
         <f>INDEX(B34:B41,MATCH(A50,A34:A41,0))</f>
         <v>6</v>
       </c>
-      <c r="C50">
+      <c r="C50" t="str">
         <f>INDEX(C34:C41,MATCH(A50,A34:A41,0))</f>
-        <v>0</v>
+        <v>NO</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B51">
         <f>INDEX(B34:B41,MATCH(A51,A34:A41,0))</f>
-        <v>1</v>
-      </c>
-      <c r="C51">
+        <v>3</v>
+      </c>
+      <c r="C51" t="str">
         <f>INDEX(C34:C41,MATCH(A51,A34:A41,0))</f>
-        <v>0</v>
+        <v>NO</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
@@ -1831,9 +1885,9 @@
         <f>INDEX(B34:B41,MATCH(A52,A34:A41,0))</f>
         <v>4</v>
       </c>
-      <c r="C52">
+      <c r="C52" t="str">
         <f>INDEX(C34:C41,MATCH(A52,A34:A41,0))</f>
-        <v>0</v>
+        <v>NO</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
@@ -1844,9 +1898,9 @@
         <f>INDEX(B34:B41,MATCH(A53,A34:A41,0))</f>
         <v>7</v>
       </c>
-      <c r="C53">
+      <c r="C53" t="str">
         <f>INDEX(C34:C41,MATCH(A53,A34:A41,0))</f>
-        <v>0</v>
+        <v>NO</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
@@ -1857,9 +1911,9 @@
         <f>INDEX(B34:B41,MATCH(A54,A34:A41,0))</f>
         <v>2</v>
       </c>
-      <c r="C54">
+      <c r="C54" t="str">
         <f>INDEX(C34:C41,MATCH(A54,A34:A41,0))</f>
-        <v>0</v>
+        <v>NO</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
@@ -1870,9 +1924,9 @@
         <f>INDEX(B34:B41,MATCH(A55,A34:A41,0))</f>
         <v>5</v>
       </c>
-      <c r="C55">
+      <c r="C55" t="str">
         <f>INDEX(C34:C41,MATCH(A55,A34:A41,0))</f>
-        <v>0</v>
+        <v>NO</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
@@ -1905,6 +1959,9 @@
       <c r="B63">
         <v>1</v>
       </c>
+      <c r="C63" t="s">
+        <v>198</v>
+      </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
@@ -1913,6 +1970,9 @@
       <c r="B64">
         <v>2</v>
       </c>
+      <c r="C64" t="s">
+        <v>199</v>
+      </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
@@ -1921,6 +1981,9 @@
       <c r="B65">
         <v>3</v>
       </c>
+      <c r="C65" t="s">
+        <v>199</v>
+      </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
@@ -1929,6 +1992,9 @@
       <c r="B66">
         <v>4</v>
       </c>
+      <c r="C66" t="s">
+        <v>199</v>
+      </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
@@ -1937,6 +2003,9 @@
       <c r="B67">
         <v>5</v>
       </c>
+      <c r="C67" t="s">
+        <v>198</v>
+      </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
@@ -1945,6 +2014,9 @@
       <c r="B68">
         <v>6</v>
       </c>
+      <c r="C68" t="s">
+        <v>199</v>
+      </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
@@ -1953,6 +2025,9 @@
       <c r="B69">
         <v>7</v>
       </c>
+      <c r="C69" t="s">
+        <v>199</v>
+      </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
@@ -1961,6 +2036,9 @@
       <c r="B70">
         <v>8</v>
       </c>
+      <c r="C70" t="s">
+        <v>199</v>
+      </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
@@ -1974,9 +2052,9 @@
       <c r="B73">
         <v>1</v>
       </c>
-      <c r="C73">
+      <c r="C73" t="str">
         <f>C63</f>
-        <v>0</v>
+        <v>YES</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
@@ -1986,9 +2064,9 @@
       <c r="B74">
         <v>2</v>
       </c>
-      <c r="C74">
+      <c r="C74" t="str">
         <f>C64</f>
-        <v>0</v>
+        <v>NO</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
@@ -2004,9 +2082,9 @@
         <f>INDEX(B63:B70,MATCH(A77,A63:A70,0))</f>
         <v>5</v>
       </c>
-      <c r="C77">
+      <c r="C77" t="str">
         <f>INDEX(C63:C70,MATCH(A77,A63:A70,0))</f>
-        <v>0</v>
+        <v>YES</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
@@ -2017,9 +2095,9 @@
         <f>INDEX(B63:B70,MATCH(A78,A63:A70,0))</f>
         <v>1</v>
       </c>
-      <c r="C78">
+      <c r="C78" t="str">
         <f>INDEX(C63:C70,MATCH(A78,A63:A70,0))</f>
-        <v>0</v>
+        <v>YES</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
@@ -2030,9 +2108,9 @@
         <f>INDEX(B63:B70,MATCH(A79,A63:A70,0))</f>
         <v>6</v>
       </c>
-      <c r="C79">
+      <c r="C79" t="str">
         <f>INDEX(C63:C70,MATCH(A79,A63:A70,0))</f>
-        <v>0</v>
+        <v>NO</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
@@ -2043,9 +2121,9 @@
         <f>INDEX(B63:B70,MATCH(A80,A63:A70,0))</f>
         <v>2</v>
       </c>
-      <c r="C80">
+      <c r="C80" t="str">
         <f>INDEX(C63:C70,MATCH(A80,A63:A70,0))</f>
-        <v>0</v>
+        <v>NO</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
@@ -2056,9 +2134,9 @@
         <f>INDEX(B63:B70,MATCH(A81,A63:A70,0))</f>
         <v>4</v>
       </c>
-      <c r="C81">
+      <c r="C81" t="str">
         <f>INDEX(C63:C70,MATCH(A81,A63:A70,0))</f>
-        <v>0</v>
+        <v>NO</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
@@ -2069,9 +2147,9 @@
         <f>INDEX(B63:B70,MATCH(A82,A63:A70,0))</f>
         <v>7</v>
       </c>
-      <c r="C82">
+      <c r="C82" t="str">
         <f>INDEX(C63:C70,MATCH(A82,A63:A70,0))</f>
-        <v>0</v>
+        <v>NO</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
@@ -2082,9 +2160,9 @@
         <f>INDEX(B63:B70,MATCH(A83,A63:A70,0))</f>
         <v>3</v>
       </c>
-      <c r="C83">
+      <c r="C83" t="str">
         <f>INDEX(C63:C70,MATCH(A83,A63:A70,0))</f>
-        <v>0</v>
+        <v>NO</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
@@ -2095,9 +2173,9 @@
         <f>INDEX(B63:B70,MATCH(A84,A63:A70,0))</f>
         <v>8</v>
       </c>
-      <c r="C84">
+      <c r="C84" t="str">
         <f>INDEX(C63:C70,MATCH(A84,A63:A70,0))</f>
-        <v>0</v>
+        <v>NO</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
@@ -2130,6 +2208,9 @@
       <c r="B92">
         <v>1</v>
       </c>
+      <c r="C92" t="s">
+        <v>198</v>
+      </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
@@ -2138,6 +2219,9 @@
       <c r="B93">
         <v>2</v>
       </c>
+      <c r="C93" t="s">
+        <v>198</v>
+      </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
@@ -2146,6 +2230,9 @@
       <c r="B94">
         <v>3</v>
       </c>
+      <c r="C94" t="s">
+        <v>198</v>
+      </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
@@ -2154,6 +2241,9 @@
       <c r="B95">
         <v>4</v>
       </c>
+      <c r="C95" t="s">
+        <v>198</v>
+      </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
@@ -2162,6 +2252,9 @@
       <c r="B96">
         <v>5</v>
       </c>
+      <c r="C96" t="s">
+        <v>199</v>
+      </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
@@ -2170,6 +2263,9 @@
       <c r="B97">
         <v>6</v>
       </c>
+      <c r="C97" t="s">
+        <v>199</v>
+      </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
@@ -2178,6 +2274,9 @@
       <c r="B98">
         <v>7</v>
       </c>
+      <c r="C98" t="s">
+        <v>198</v>
+      </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
@@ -2186,6 +2285,9 @@
       <c r="B99">
         <v>8</v>
       </c>
+      <c r="C99" t="s">
+        <v>198</v>
+      </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
@@ -2199,9 +2301,9 @@
       <c r="B102">
         <v>1</v>
       </c>
-      <c r="C102">
+      <c r="C102" t="str">
         <f>C92</f>
-        <v>0</v>
+        <v>YES</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
@@ -2211,9 +2313,9 @@
       <c r="B103">
         <v>2</v>
       </c>
-      <c r="C103">
+      <c r="C103" t="str">
         <f>C93</f>
-        <v>0</v>
+        <v>YES</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
@@ -2229,9 +2331,9 @@
         <f>INDEX(B92:B99,MATCH(A106,A92:A99,0))</f>
         <v>4</v>
       </c>
-      <c r="C106">
+      <c r="C106" t="str">
         <f>INDEX(C92:C99,MATCH(A106,A92:A99,0))</f>
-        <v>0</v>
+        <v>YES</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
@@ -2242,9 +2344,9 @@
         <f>INDEX(B92:B99,MATCH(A107,A92:A99,0))</f>
         <v>5</v>
       </c>
-      <c r="C107">
+      <c r="C107" t="str">
         <f>INDEX(C92:C99,MATCH(A107,A92:A99,0))</f>
-        <v>0</v>
+        <v>NO</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
@@ -2255,9 +2357,9 @@
         <f>INDEX(B92:B99,MATCH(A108,A92:A99,0))</f>
         <v>1</v>
       </c>
-      <c r="C108">
+      <c r="C108" t="str">
         <f>INDEX(C92:C99,MATCH(A108,A92:A99,0))</f>
-        <v>0</v>
+        <v>YES</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
@@ -2268,9 +2370,9 @@
         <f>INDEX(B92:B99,MATCH(A109,A92:A99,0))</f>
         <v>7</v>
       </c>
-      <c r="C109">
+      <c r="C109" t="str">
         <f>INDEX(C92:C99,MATCH(A109,A92:A99,0))</f>
-        <v>0</v>
+        <v>YES</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
@@ -2281,9 +2383,9 @@
         <f>INDEX(B92:B99,MATCH(A110,A92:A99,0))</f>
         <v>2</v>
       </c>
-      <c r="C110">
+      <c r="C110" t="str">
         <f>INDEX(C92:C99,MATCH(A110,A92:A99,0))</f>
-        <v>0</v>
+        <v>YES</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
@@ -2294,9 +2396,9 @@
         <f>INDEX(B92:B99,MATCH(A111,A92:A99,0))</f>
         <v>3</v>
       </c>
-      <c r="C111">
+      <c r="C111" t="str">
         <f>INDEX(C92:C99,MATCH(A111,A92:A99,0))</f>
-        <v>0</v>
+        <v>YES</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
@@ -2307,9 +2409,9 @@
         <f>INDEX(B92:B99,MATCH(A112,A92:A99,0))</f>
         <v>8</v>
       </c>
-      <c r="C112">
+      <c r="C112" t="str">
         <f>INDEX(C92:C99,MATCH(A112,A92:A99,0))</f>
-        <v>0</v>
+        <v>YES</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
@@ -2320,9 +2422,9 @@
         <f>INDEX(B92:B99,MATCH(A113,A92:A99,0))</f>
         <v>6</v>
       </c>
-      <c r="C113">
+      <c r="C113" t="str">
         <f>INDEX(C92:C99,MATCH(A113,A92:A99,0))</f>
-        <v>0</v>
+        <v>NO</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
@@ -2355,6 +2457,9 @@
       <c r="B121">
         <v>1</v>
       </c>
+      <c r="C121" t="s">
+        <v>198</v>
+      </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
@@ -2363,6 +2468,9 @@
       <c r="B122">
         <v>2</v>
       </c>
+      <c r="C122" t="s">
+        <v>199</v>
+      </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
@@ -2371,6 +2479,9 @@
       <c r="B123">
         <v>3</v>
       </c>
+      <c r="C123" t="s">
+        <v>198</v>
+      </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
@@ -2379,6 +2490,9 @@
       <c r="B124">
         <v>4</v>
       </c>
+      <c r="C124" t="s">
+        <v>198</v>
+      </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
@@ -2387,6 +2501,9 @@
       <c r="B125">
         <v>5</v>
       </c>
+      <c r="C125" t="s">
+        <v>199</v>
+      </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
@@ -2395,6 +2512,9 @@
       <c r="B126">
         <v>6</v>
       </c>
+      <c r="C126" t="s">
+        <v>199</v>
+      </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
@@ -2403,6 +2523,9 @@
       <c r="B127">
         <v>7</v>
       </c>
+      <c r="C127" t="s">
+        <v>198</v>
+      </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
@@ -2411,6 +2534,9 @@
       <c r="B128">
         <v>8</v>
       </c>
+      <c r="C128" t="s">
+        <v>198</v>
+      </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
@@ -2424,9 +2550,9 @@
       <c r="B131">
         <v>1</v>
       </c>
-      <c r="C131">
+      <c r="C131" t="str">
         <f>C121</f>
-        <v>0</v>
+        <v>YES</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.25">
@@ -2436,9 +2562,9 @@
       <c r="B132">
         <v>2</v>
       </c>
-      <c r="C132">
+      <c r="C132" t="str">
         <f>C122</f>
-        <v>0</v>
+        <v>NO</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.25">
@@ -2454,9 +2580,9 @@
         <f>INDEX(B121:B128,MATCH(A135,A121:A128,0))</f>
         <v>7</v>
       </c>
-      <c r="C135">
+      <c r="C135" t="str">
         <f>INDEX(C121:C128,MATCH(A135,A121:A128,0))</f>
-        <v>0</v>
+        <v>YES</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.25">
@@ -2467,9 +2593,9 @@
         <f>INDEX(B121:B128,MATCH(A136,A121:A128,0))</f>
         <v>1</v>
       </c>
-      <c r="C136">
+      <c r="C136" t="str">
         <f>INDEX(C121:C128,MATCH(A136,A121:A128,0))</f>
-        <v>0</v>
+        <v>YES</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.25">
@@ -2480,9 +2606,9 @@
         <f>INDEX(B121:B128,MATCH(A137,A121:A128,0))</f>
         <v>6</v>
       </c>
-      <c r="C137">
+      <c r="C137" t="str">
         <f>INDEX(C121:C128,MATCH(A137,A121:A128,0))</f>
-        <v>0</v>
+        <v>NO</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.25">
@@ -2493,9 +2619,9 @@
         <f>INDEX(B121:B128,MATCH(A138,A121:A128,0))</f>
         <v>2</v>
       </c>
-      <c r="C138">
+      <c r="C138" t="str">
         <f>INDEX(C121:C128,MATCH(A138,A121:A128,0))</f>
-        <v>0</v>
+        <v>NO</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.25">
@@ -2506,9 +2632,9 @@
         <f>INDEX(B121:B128,MATCH(A139,A121:A128,0))</f>
         <v>3</v>
       </c>
-      <c r="C139">
+      <c r="C139" t="str">
         <f>INDEX(C121:C128,MATCH(A139,A121:A128,0))</f>
-        <v>0</v>
+        <v>YES</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.25">
@@ -2519,9 +2645,9 @@
         <f>INDEX(B121:B128,MATCH(A140,A121:A128,0))</f>
         <v>4</v>
       </c>
-      <c r="C140">
+      <c r="C140" t="str">
         <f>INDEX(C121:C128,MATCH(A140,A121:A128,0))</f>
-        <v>0</v>
+        <v>YES</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.25">
@@ -2532,9 +2658,9 @@
         <f>INDEX(B121:B128,MATCH(A141,A121:A128,0))</f>
         <v>8</v>
       </c>
-      <c r="C141">
+      <c r="C141" t="str">
         <f>INDEX(C121:C128,MATCH(A141,A121:A128,0))</f>
-        <v>0</v>
+        <v>YES</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.25">
@@ -2545,9 +2671,9 @@
         <f>INDEX(B121:B128,MATCH(A142,A121:A128,0))</f>
         <v>5</v>
       </c>
-      <c r="C142">
+      <c r="C142" t="str">
         <f>INDEX(C121:C128,MATCH(A142,A121:A128,0))</f>
-        <v>0</v>
+        <v>NO</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.25">
@@ -2580,6 +2706,9 @@
       <c r="B150">
         <v>1</v>
       </c>
+      <c r="C150" t="s">
+        <v>199</v>
+      </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
@@ -2588,6 +2717,9 @@
       <c r="B151">
         <v>2</v>
       </c>
+      <c r="C151" t="s">
+        <v>199</v>
+      </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
@@ -2596,6 +2728,9 @@
       <c r="B152">
         <v>3</v>
       </c>
+      <c r="C152" t="s">
+        <v>199</v>
+      </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
@@ -2604,6 +2739,9 @@
       <c r="B153">
         <v>4</v>
       </c>
+      <c r="C153" t="s">
+        <v>198</v>
+      </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
@@ -2612,6 +2750,9 @@
       <c r="B154">
         <v>5</v>
       </c>
+      <c r="C154" t="s">
+        <v>199</v>
+      </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
@@ -2620,6 +2761,9 @@
       <c r="B155">
         <v>6</v>
       </c>
+      <c r="C155" t="s">
+        <v>199</v>
+      </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
@@ -2628,6 +2772,9 @@
       <c r="B156">
         <v>7</v>
       </c>
+      <c r="C156" t="s">
+        <v>199</v>
+      </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
@@ -2636,6 +2783,9 @@
       <c r="B157">
         <v>8</v>
       </c>
+      <c r="C157" t="s">
+        <v>199</v>
+      </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
@@ -2649,9 +2799,9 @@
       <c r="B160">
         <v>1</v>
       </c>
-      <c r="C160">
+      <c r="C160" t="str">
         <f>C150</f>
-        <v>0</v>
+        <v>NO</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.25">
@@ -2661,9 +2811,9 @@
       <c r="B161">
         <v>2</v>
       </c>
-      <c r="C161">
+      <c r="C161" t="str">
         <f>C151</f>
-        <v>0</v>
+        <v>NO</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.25">
@@ -2679,9 +2829,9 @@
         <f>INDEX(B150:B157,MATCH(A164,A150:A157,0))</f>
         <v>5</v>
       </c>
-      <c r="C164">
+      <c r="C164" t="str">
         <f>INDEX(C150:C157,MATCH(A164,A150:A157,0))</f>
-        <v>0</v>
+        <v>NO</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.25">
@@ -2692,9 +2842,9 @@
         <f>INDEX(B150:B157,MATCH(A165,A150:A157,0))</f>
         <v>7</v>
       </c>
-      <c r="C165">
+      <c r="C165" t="str">
         <f>INDEX(C150:C157,MATCH(A165,A150:A157,0))</f>
-        <v>0</v>
+        <v>NO</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.25">
@@ -2705,9 +2855,9 @@
         <f>INDEX(B150:B157,MATCH(A166,A150:A157,0))</f>
         <v>4</v>
       </c>
-      <c r="C166">
+      <c r="C166" t="str">
         <f>INDEX(C150:C157,MATCH(A166,A150:A157,0))</f>
-        <v>0</v>
+        <v>YES</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.25">
@@ -2718,9 +2868,9 @@
         <f>INDEX(B150:B157,MATCH(A167,A150:A157,0))</f>
         <v>1</v>
       </c>
-      <c r="C167">
+      <c r="C167" t="str">
         <f>INDEX(C150:C157,MATCH(A167,A150:A157,0))</f>
-        <v>0</v>
+        <v>NO</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.25">
@@ -2731,9 +2881,9 @@
         <f>INDEX(B150:B157,MATCH(A168,A150:A157,0))</f>
         <v>2</v>
       </c>
-      <c r="C168">
+      <c r="C168" t="str">
         <f>INDEX(C150:C157,MATCH(A168,A150:A157,0))</f>
-        <v>0</v>
+        <v>NO</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.25">
@@ -2744,9 +2894,9 @@
         <f>INDEX(B150:B157,MATCH(A169,A150:A157,0))</f>
         <v>3</v>
       </c>
-      <c r="C169">
+      <c r="C169" t="str">
         <f>INDEX(C150:C157,MATCH(A169,A150:A157,0))</f>
-        <v>0</v>
+        <v>NO</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.25">
@@ -2757,9 +2907,9 @@
         <f>INDEX(B150:B157,MATCH(A170,A150:A157,0))</f>
         <v>6</v>
       </c>
-      <c r="C170">
+      <c r="C170" t="str">
         <f>INDEX(C150:C157,MATCH(A170,A150:A157,0))</f>
-        <v>0</v>
+        <v>NO</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.25">
@@ -2770,9 +2920,9 @@
         <f>INDEX(B150:B157,MATCH(A171,A150:A157,0))</f>
         <v>8</v>
       </c>
-      <c r="C171">
+      <c r="C171" t="str">
         <f>INDEX(C150:C157,MATCH(A171,A150:A157,0))</f>
-        <v>0</v>
+        <v>NO</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.25">
@@ -2805,6 +2955,9 @@
       <c r="B179">
         <v>1</v>
       </c>
+      <c r="C179" t="s">
+        <v>199</v>
+      </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
@@ -2813,6 +2966,9 @@
       <c r="B180">
         <v>2</v>
       </c>
+      <c r="C180" t="s">
+        <v>198</v>
+      </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
@@ -2821,6 +2977,9 @@
       <c r="B181">
         <v>3</v>
       </c>
+      <c r="C181" t="s">
+        <v>198</v>
+      </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
@@ -2829,6 +2988,9 @@
       <c r="B182">
         <v>4</v>
       </c>
+      <c r="C182" t="s">
+        <v>199</v>
+      </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
@@ -2837,6 +2999,9 @@
       <c r="B183">
         <v>5</v>
       </c>
+      <c r="C183" t="s">
+        <v>199</v>
+      </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
@@ -2845,6 +3010,9 @@
       <c r="B184">
         <v>6</v>
       </c>
+      <c r="C184" t="s">
+        <v>199</v>
+      </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
@@ -2853,6 +3021,9 @@
       <c r="B185">
         <v>7</v>
       </c>
+      <c r="C185" t="s">
+        <v>199</v>
+      </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
@@ -2861,6 +3032,9 @@
       <c r="B186">
         <v>8</v>
       </c>
+      <c r="C186" t="s">
+        <v>199</v>
+      </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
@@ -2874,9 +3048,9 @@
       <c r="B189">
         <v>1</v>
       </c>
-      <c r="C189">
+      <c r="C189" t="str">
         <f>C179</f>
-        <v>0</v>
+        <v>NO</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.25">
@@ -2886,9 +3060,9 @@
       <c r="B190">
         <v>2</v>
       </c>
-      <c r="C190">
+      <c r="C190" t="str">
         <f>C180</f>
-        <v>0</v>
+        <v>YES</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.25">
@@ -2904,9 +3078,9 @@
         <f>INDEX(B179:B186,MATCH(A193,A179:A186,0))</f>
         <v>4</v>
       </c>
-      <c r="C193">
+      <c r="C193" t="str">
         <f>INDEX(C179:C186,MATCH(A193,A179:A186,0))</f>
-        <v>0</v>
+        <v>NO</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.25">
@@ -2917,9 +3091,9 @@
         <f>INDEX(B179:B186,MATCH(A194,A179:A186,0))</f>
         <v>2</v>
       </c>
-      <c r="C194">
+      <c r="C194" t="str">
         <f>INDEX(C179:C186,MATCH(A194,A179:A186,0))</f>
-        <v>0</v>
+        <v>YES</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.25">
@@ -2930,9 +3104,9 @@
         <f>INDEX(B179:B186,MATCH(A195,A179:A186,0))</f>
         <v>1</v>
       </c>
-      <c r="C195">
+      <c r="C195" t="str">
         <f>INDEX(C179:C186,MATCH(A195,A179:A186,0))</f>
-        <v>0</v>
+        <v>NO</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.25">
@@ -2943,9 +3117,9 @@
         <f>INDEX(B179:B186,MATCH(A196,A179:A186,0))</f>
         <v>3</v>
       </c>
-      <c r="C196">
+      <c r="C196" t="str">
         <f>INDEX(C179:C186,MATCH(A196,A179:A186,0))</f>
-        <v>0</v>
+        <v>YES</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.25">
@@ -2956,9 +3130,9 @@
         <f>INDEX(B179:B186,MATCH(A197,A179:A186,0))</f>
         <v>5</v>
       </c>
-      <c r="C197">
+      <c r="C197" t="str">
         <f>INDEX(C179:C186,MATCH(A197,A179:A186,0))</f>
-        <v>0</v>
+        <v>NO</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.25">
@@ -2969,9 +3143,9 @@
         <f>INDEX(B179:B186,MATCH(A198,A179:A186,0))</f>
         <v>6</v>
       </c>
-      <c r="C198">
+      <c r="C198" t="str">
         <f>INDEX(C179:C186,MATCH(A198,A179:A186,0))</f>
-        <v>0</v>
+        <v>NO</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.25">
@@ -2982,9 +3156,9 @@
         <f>INDEX(B179:B186,MATCH(A199,A179:A186,0))</f>
         <v>7</v>
       </c>
-      <c r="C199">
+      <c r="C199" t="str">
         <f>INDEX(C179:C186,MATCH(A199,A179:A186,0))</f>
-        <v>0</v>
+        <v>NO</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.25">
@@ -2995,9 +3169,9 @@
         <f>INDEX(B179:B186,MATCH(A200,A179:A186,0))</f>
         <v>8</v>
       </c>
-      <c r="C200">
+      <c r="C200" t="str">
         <f>INDEX(C179:C186,MATCH(A200,A179:A186,0))</f>
-        <v>0</v>
+        <v>NO</v>
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.25">
@@ -3030,6 +3204,9 @@
       <c r="B208">
         <v>1</v>
       </c>
+      <c r="C208" t="s">
+        <v>198</v>
+      </c>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
@@ -3038,6 +3215,9 @@
       <c r="B209">
         <v>2</v>
       </c>
+      <c r="C209" t="s">
+        <v>199</v>
+      </c>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
@@ -3046,6 +3226,9 @@
       <c r="B210">
         <v>3</v>
       </c>
+      <c r="C210" t="s">
+        <v>198</v>
+      </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
@@ -3054,6 +3237,9 @@
       <c r="B211">
         <v>4</v>
       </c>
+      <c r="C211" t="s">
+        <v>198</v>
+      </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
@@ -3062,6 +3248,9 @@
       <c r="B212">
         <v>5</v>
       </c>
+      <c r="C212" t="s">
+        <v>198</v>
+      </c>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
@@ -3070,6 +3259,9 @@
       <c r="B213">
         <v>6</v>
       </c>
+      <c r="C213" t="s">
+        <v>198</v>
+      </c>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
@@ -3078,6 +3270,9 @@
       <c r="B214">
         <v>7</v>
       </c>
+      <c r="C214" t="s">
+        <v>199</v>
+      </c>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
@@ -3086,6 +3281,9 @@
       <c r="B215">
         <v>8</v>
       </c>
+      <c r="C215" t="s">
+        <v>198</v>
+      </c>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
@@ -3099,9 +3297,9 @@
       <c r="B218">
         <v>1</v>
       </c>
-      <c r="C218">
+      <c r="C218" t="str">
         <f>C208</f>
-        <v>0</v>
+        <v>YES</v>
       </c>
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.25">
@@ -3111,9 +3309,9 @@
       <c r="B219">
         <v>2</v>
       </c>
-      <c r="C219">
+      <c r="C219" t="str">
         <f>C209</f>
-        <v>0</v>
+        <v>NO</v>
       </c>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.25">
@@ -3129,9 +3327,9 @@
         <f>INDEX(B208:B215,MATCH(A222,A208:A215,0))</f>
         <v>1</v>
       </c>
-      <c r="C222">
+      <c r="C222" t="str">
         <f>INDEX(C208:C215,MATCH(A222,A208:A215,0))</f>
-        <v>0</v>
+        <v>YES</v>
       </c>
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.25">
@@ -3142,9 +3340,9 @@
         <f>INDEX(B208:B215,MATCH(A223,A208:A215,0))</f>
         <v>6</v>
       </c>
-      <c r="C223">
+      <c r="C223" t="str">
         <f>INDEX(C208:C215,MATCH(A223,A208:A215,0))</f>
-        <v>0</v>
+        <v>YES</v>
       </c>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.25">
@@ -3155,9 +3353,9 @@
         <f>INDEX(B208:B215,MATCH(A224,A208:A215,0))</f>
         <v>4</v>
       </c>
-      <c r="C224">
+      <c r="C224" t="str">
         <f>INDEX(C208:C215,MATCH(A224,A208:A215,0))</f>
-        <v>0</v>
+        <v>YES</v>
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.25">
@@ -3168,9 +3366,9 @@
         <f>INDEX(B208:B215,MATCH(A225,A208:A215,0))</f>
         <v>5</v>
       </c>
-      <c r="C225">
+      <c r="C225" t="str">
         <f>INDEX(C208:C215,MATCH(A225,A208:A215,0))</f>
-        <v>0</v>
+        <v>YES</v>
       </c>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.25">
@@ -3181,9 +3379,9 @@
         <f>INDEX(B208:B215,MATCH(A226,A208:A215,0))</f>
         <v>8</v>
       </c>
-      <c r="C226">
+      <c r="C226" t="str">
         <f>INDEX(C208:C215,MATCH(A226,A208:A215,0))</f>
-        <v>0</v>
+        <v>YES</v>
       </c>
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.25">
@@ -3194,9 +3392,9 @@
         <f>INDEX(B208:B215,MATCH(A227,A208:A215,0))</f>
         <v>2</v>
       </c>
-      <c r="C227">
+      <c r="C227" t="str">
         <f>INDEX(C208:C215,MATCH(A227,A208:A215,0))</f>
-        <v>0</v>
+        <v>NO</v>
       </c>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.25">
@@ -3207,9 +3405,9 @@
         <f>INDEX(B208:B215,MATCH(A228,A208:A215,0))</f>
         <v>3</v>
       </c>
-      <c r="C228">
+      <c r="C228" t="str">
         <f>INDEX(C208:C215,MATCH(A228,A208:A215,0))</f>
-        <v>0</v>
+        <v>YES</v>
       </c>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.25">
@@ -3220,9 +3418,9 @@
         <f>INDEX(B208:B215,MATCH(A229,A208:A215,0))</f>
         <v>7</v>
       </c>
-      <c r="C229">
+      <c r="C229" t="str">
         <f>INDEX(C208:C215,MATCH(A229,A208:A215,0))</f>
-        <v>0</v>
+        <v>NO</v>
       </c>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.25">
@@ -3255,6 +3453,9 @@
       <c r="B237">
         <v>1</v>
       </c>
+      <c r="C237" t="s">
+        <v>199</v>
+      </c>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
@@ -3263,6 +3464,9 @@
       <c r="B238">
         <v>2</v>
       </c>
+      <c r="C238" t="s">
+        <v>198</v>
+      </c>
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
@@ -3271,6 +3475,9 @@
       <c r="B239">
         <v>3</v>
       </c>
+      <c r="C239" t="s">
+        <v>198</v>
+      </c>
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
@@ -3279,6 +3486,9 @@
       <c r="B240">
         <v>4</v>
       </c>
+      <c r="C240" t="s">
+        <v>198</v>
+      </c>
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
@@ -3287,6 +3497,9 @@
       <c r="B241">
         <v>5</v>
       </c>
+      <c r="C241" t="s">
+        <v>199</v>
+      </c>
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
@@ -3295,6 +3508,9 @@
       <c r="B242">
         <v>6</v>
       </c>
+      <c r="C242" t="s">
+        <v>198</v>
+      </c>
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
@@ -3303,6 +3519,9 @@
       <c r="B243">
         <v>7</v>
       </c>
+      <c r="C243" t="s">
+        <v>199</v>
+      </c>
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
@@ -3311,6 +3530,9 @@
       <c r="B244">
         <v>8</v>
       </c>
+      <c r="C244" t="s">
+        <v>199</v>
+      </c>
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
@@ -3324,9 +3546,9 @@
       <c r="B247">
         <v>1</v>
       </c>
-      <c r="C247">
+      <c r="C247" t="str">
         <f>C237</f>
-        <v>0</v>
+        <v>NO</v>
       </c>
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.25">
@@ -3336,9 +3558,9 @@
       <c r="B248">
         <v>2</v>
       </c>
-      <c r="C248">
+      <c r="C248" t="str">
         <f>C238</f>
-        <v>0</v>
+        <v>YES</v>
       </c>
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.25">
@@ -3354,9 +3576,9 @@
         <f>INDEX(B237:B244,MATCH(A251,A237:A244,0))</f>
         <v>3</v>
       </c>
-      <c r="C251">
+      <c r="C251" t="str">
         <f>INDEX(C237:C244,MATCH(A251,A237:A244,0))</f>
-        <v>0</v>
+        <v>YES</v>
       </c>
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.25">
@@ -3367,9 +3589,9 @@
         <f>INDEX(B237:B244,MATCH(A252,A237:A244,0))</f>
         <v>6</v>
       </c>
-      <c r="C252">
+      <c r="C252" t="str">
         <f>INDEX(C237:C244,MATCH(A252,A237:A244,0))</f>
-        <v>0</v>
+        <v>YES</v>
       </c>
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.25">
@@ -3380,9 +3602,9 @@
         <f>INDEX(B237:B244,MATCH(A253,A237:A244,0))</f>
         <v>1</v>
       </c>
-      <c r="C253">
+      <c r="C253" t="str">
         <f>INDEX(C237:C244,MATCH(A253,A237:A244,0))</f>
-        <v>0</v>
+        <v>NO</v>
       </c>
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.25">
@@ -3393,9 +3615,9 @@
         <f>INDEX(B237:B244,MATCH(A254,A237:A244,0))</f>
         <v>2</v>
       </c>
-      <c r="C254">
+      <c r="C254" t="str">
         <f>INDEX(C237:C244,MATCH(A254,A237:A244,0))</f>
-        <v>0</v>
+        <v>YES</v>
       </c>
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.25">
@@ -3406,9 +3628,9 @@
         <f>INDEX(B237:B244,MATCH(A255,A237:A244,0))</f>
         <v>4</v>
       </c>
-      <c r="C255">
+      <c r="C255" t="str">
         <f>INDEX(C237:C244,MATCH(A255,A237:A244,0))</f>
-        <v>0</v>
+        <v>YES</v>
       </c>
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.25">
@@ -3419,9 +3641,9 @@
         <f>INDEX(B237:B244,MATCH(A256,A237:A244,0))</f>
         <v>8</v>
       </c>
-      <c r="C256">
+      <c r="C256" t="str">
         <f>INDEX(C237:C244,MATCH(A256,A237:A244,0))</f>
-        <v>0</v>
+        <v>NO</v>
       </c>
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.25">
@@ -3432,9 +3654,9 @@
         <f>INDEX(B237:B244,MATCH(A257,A237:A244,0))</f>
         <v>7</v>
       </c>
-      <c r="C257">
+      <c r="C257" t="str">
         <f>INDEX(C237:C244,MATCH(A257,A237:A244,0))</f>
-        <v>0</v>
+        <v>NO</v>
       </c>
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.25">
@@ -3445,9 +3667,9 @@
         <f>INDEX(B237:B244,MATCH(A258,A237:A244,0))</f>
         <v>5</v>
       </c>
-      <c r="C258">
+      <c r="C258" t="str">
         <f>INDEX(C237:C244,MATCH(A258,A237:A244,0))</f>
-        <v>0</v>
+        <v>NO</v>
       </c>
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.25">
@@ -3480,6 +3702,9 @@
       <c r="B266">
         <v>1</v>
       </c>
+      <c r="C266" t="s">
+        <v>198</v>
+      </c>
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
@@ -3488,6 +3713,9 @@
       <c r="B267">
         <v>2</v>
       </c>
+      <c r="C267" t="s">
+        <v>198</v>
+      </c>
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
@@ -3496,6 +3724,9 @@
       <c r="B268">
         <v>3</v>
       </c>
+      <c r="C268" t="s">
+        <v>199</v>
+      </c>
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
@@ -3504,6 +3735,9 @@
       <c r="B269">
         <v>4</v>
       </c>
+      <c r="C269" t="s">
+        <v>198</v>
+      </c>
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
@@ -3512,6 +3746,9 @@
       <c r="B270">
         <v>5</v>
       </c>
+      <c r="C270" t="s">
+        <v>199</v>
+      </c>
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
@@ -3520,6 +3757,9 @@
       <c r="B271">
         <v>6</v>
       </c>
+      <c r="C271" t="s">
+        <v>198</v>
+      </c>
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
@@ -3528,6 +3768,9 @@
       <c r="B272">
         <v>7</v>
       </c>
+      <c r="C272" t="s">
+        <v>198</v>
+      </c>
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
@@ -3536,6 +3779,9 @@
       <c r="B273">
         <v>8</v>
       </c>
+      <c r="C273" t="s">
+        <v>199</v>
+      </c>
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
@@ -3549,9 +3795,9 @@
       <c r="B276">
         <v>1</v>
       </c>
-      <c r="C276">
+      <c r="C276" t="str">
         <f>C266</f>
-        <v>0</v>
+        <v>YES</v>
       </c>
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.25">
@@ -3561,9 +3807,9 @@
       <c r="B277">
         <v>2</v>
       </c>
-      <c r="C277">
+      <c r="C277" t="str">
         <f>C267</f>
-        <v>0</v>
+        <v>YES</v>
       </c>
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.25">
@@ -3579,9 +3825,9 @@
         <f>INDEX(B266:B273,MATCH(A280,A266:A273,0))</f>
         <v>6</v>
       </c>
-      <c r="C280">
+      <c r="C280" t="str">
         <f>INDEX(C266:C273,MATCH(A280,A266:A273,0))</f>
-        <v>0</v>
+        <v>YES</v>
       </c>
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.25">
@@ -3592,9 +3838,9 @@
         <f>INDEX(B266:B273,MATCH(A281,A266:A273,0))</f>
         <v>1</v>
       </c>
-      <c r="C281">
+      <c r="C281" t="str">
         <f>INDEX(C266:C273,MATCH(A281,A266:A273,0))</f>
-        <v>0</v>
+        <v>YES</v>
       </c>
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.25">
@@ -3605,9 +3851,9 @@
         <f>INDEX(B266:B273,MATCH(A282,A266:A273,0))</f>
         <v>5</v>
       </c>
-      <c r="C282">
+      <c r="C282" t="str">
         <f>INDEX(C266:C273,MATCH(A282,A266:A273,0))</f>
-        <v>0</v>
+        <v>NO</v>
       </c>
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.25">
@@ -3618,9 +3864,9 @@
         <f>INDEX(B266:B273,MATCH(A283,A266:A273,0))</f>
         <v>2</v>
       </c>
-      <c r="C283">
+      <c r="C283" t="str">
         <f>INDEX(C266:C273,MATCH(A283,A266:A273,0))</f>
-        <v>0</v>
+        <v>YES</v>
       </c>
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.25">
@@ -3631,9 +3877,9 @@
         <f>INDEX(B266:B273,MATCH(A284,A266:A273,0))</f>
         <v>8</v>
       </c>
-      <c r="C284">
+      <c r="C284" t="str">
         <f>INDEX(C266:C273,MATCH(A284,A266:A273,0))</f>
-        <v>0</v>
+        <v>NO</v>
       </c>
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.25">
@@ -3644,9 +3890,9 @@
         <f>INDEX(B266:B273,MATCH(A285,A266:A273,0))</f>
         <v>4</v>
       </c>
-      <c r="C285">
+      <c r="C285" t="str">
         <f>INDEX(C266:C273,MATCH(A285,A266:A273,0))</f>
-        <v>0</v>
+        <v>YES</v>
       </c>
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.25">
@@ -3657,9 +3903,9 @@
         <f>INDEX(B266:B273,MATCH(A286,A266:A273,0))</f>
         <v>7</v>
       </c>
-      <c r="C286">
+      <c r="C286" t="str">
         <f>INDEX(C266:C273,MATCH(A286,A266:A273,0))</f>
-        <v>0</v>
+        <v>YES</v>
       </c>
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.25">
@@ -3670,22 +3916,22 @@
         <f>INDEX(B266:B273,MATCH(A287,A266:A273,0))</f>
         <v>3</v>
       </c>
-      <c r="C287">
+      <c r="C287" t="str">
         <f>INDEX(C266:C273,MATCH(A287,A266:A273,0))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="289" spans="1:2" x14ac:dyDescent="0.25">
+        <v>NO</v>
+      </c>
+    </row>
+    <row r="289" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="291" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="293" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>1</v>
       </c>
@@ -3693,76 +3939,100 @@
         <v>89</v>
       </c>
     </row>
-    <row r="294" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="295" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>90</v>
       </c>
       <c r="B295">
         <v>1</v>
       </c>
-    </row>
-    <row r="296" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C295" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="296" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>91</v>
       </c>
       <c r="B296">
         <v>2</v>
       </c>
-    </row>
-    <row r="297" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C296" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="297" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>92</v>
       </c>
       <c r="B297">
         <v>3</v>
       </c>
-    </row>
-    <row r="298" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C297" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="298" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>93</v>
       </c>
       <c r="B298">
         <v>4</v>
       </c>
-    </row>
-    <row r="299" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C298" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="299" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>94</v>
       </c>
       <c r="B299">
         <v>5</v>
       </c>
-    </row>
-    <row r="300" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C299" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="300" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>85</v>
       </c>
       <c r="B300">
         <v>6</v>
       </c>
-    </row>
-    <row r="301" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C300" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="301" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>95</v>
       </c>
       <c r="B301">
         <v>7</v>
       </c>
-    </row>
-    <row r="302" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C301" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="302" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
         <v>96</v>
       </c>
       <c r="B302">
         <v>8</v>
       </c>
-    </row>
-    <row r="304" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C302" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="304" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
         <v>12</v>
       </c>
@@ -3774,9 +4044,9 @@
       <c r="B305">
         <v>1</v>
       </c>
-      <c r="C305">
+      <c r="C305" t="str">
         <f>C295</f>
-        <v>0</v>
+        <v>YES</v>
       </c>
     </row>
     <row r="306" spans="1:3" x14ac:dyDescent="0.25">
@@ -3786,9 +4056,9 @@
       <c r="B306">
         <v>2</v>
       </c>
-      <c r="C306">
+      <c r="C306" t="str">
         <f>C296</f>
-        <v>0</v>
+        <v>YES</v>
       </c>
     </row>
     <row r="308" spans="1:3" x14ac:dyDescent="0.25">
@@ -3804,9 +4074,9 @@
         <f>INDEX(B295:B302,MATCH(A309,A295:A302,0))</f>
         <v>3</v>
       </c>
-      <c r="C309">
+      <c r="C309" t="str">
         <f>INDEX(C295:C302,MATCH(A309,A295:A302,0))</f>
-        <v>0</v>
+        <v>YES</v>
       </c>
     </row>
     <row r="310" spans="1:3" x14ac:dyDescent="0.25">
@@ -3817,9 +4087,9 @@
         <f>INDEX(B295:B302,MATCH(A310,A295:A302,0))</f>
         <v>4</v>
       </c>
-      <c r="C310">
+      <c r="C310" t="str">
         <f>INDEX(C295:C302,MATCH(A310,A295:A302,0))</f>
-        <v>0</v>
+        <v>YES</v>
       </c>
     </row>
     <row r="311" spans="1:3" x14ac:dyDescent="0.25">
@@ -3830,9 +4100,9 @@
         <f>INDEX(B295:B302,MATCH(A311,A295:A302,0))</f>
         <v>6</v>
       </c>
-      <c r="C311">
+      <c r="C311" t="str">
         <f>INDEX(C295:C302,MATCH(A311,A295:A302,0))</f>
-        <v>0</v>
+        <v>NO</v>
       </c>
     </row>
     <row r="312" spans="1:3" x14ac:dyDescent="0.25">
@@ -3843,9 +4113,9 @@
         <f>INDEX(B295:B302,MATCH(A312,A295:A302,0))</f>
         <v>5</v>
       </c>
-      <c r="C312">
+      <c r="C312" t="str">
         <f>INDEX(C295:C302,MATCH(A312,A295:A302,0))</f>
-        <v>0</v>
+        <v>NO</v>
       </c>
     </row>
     <row r="313" spans="1:3" x14ac:dyDescent="0.25">
@@ -3856,9 +4126,9 @@
         <f>INDEX(B295:B302,MATCH(A313,A295:A302,0))</f>
         <v>8</v>
       </c>
-      <c r="C313">
+      <c r="C313" t="str">
         <f>INDEX(C295:C302,MATCH(A313,A295:A302,0))</f>
-        <v>0</v>
+        <v>YES</v>
       </c>
     </row>
     <row r="314" spans="1:3" x14ac:dyDescent="0.25">
@@ -3869,9 +4139,9 @@
         <f>INDEX(B295:B302,MATCH(A314,A295:A302,0))</f>
         <v>2</v>
       </c>
-      <c r="C314">
+      <c r="C314" t="str">
         <f>INDEX(C295:C302,MATCH(A314,A295:A302,0))</f>
-        <v>0</v>
+        <v>YES</v>
       </c>
     </row>
     <row r="315" spans="1:3" x14ac:dyDescent="0.25">
@@ -3882,9 +4152,9 @@
         <f>INDEX(B295:B302,MATCH(A315,A295:A302,0))</f>
         <v>1</v>
       </c>
-      <c r="C315">
+      <c r="C315" t="str">
         <f>INDEX(C295:C302,MATCH(A315,A295:A302,0))</f>
-        <v>0</v>
+        <v>YES</v>
       </c>
     </row>
     <row r="316" spans="1:3" x14ac:dyDescent="0.25">
@@ -3895,9 +4165,9 @@
         <f>INDEX(B295:B302,MATCH(A316,A295:A302,0))</f>
         <v>7</v>
       </c>
-      <c r="C316">
+      <c r="C316" t="str">
         <f>INDEX(C295:C302,MATCH(A316,A295:A302,0))</f>
-        <v>0</v>
+        <v>NO</v>
       </c>
     </row>
     <row r="318" spans="1:3" x14ac:dyDescent="0.25">
@@ -3930,6 +4200,9 @@
       <c r="B324">
         <v>1</v>
       </c>
+      <c r="C324" t="s">
+        <v>198</v>
+      </c>
     </row>
     <row r="325" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
@@ -3938,6 +4211,9 @@
       <c r="B325">
         <v>2</v>
       </c>
+      <c r="C325" t="s">
+        <v>199</v>
+      </c>
     </row>
     <row r="326" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
@@ -3946,6 +4222,9 @@
       <c r="B326">
         <v>3</v>
       </c>
+      <c r="C326" t="s">
+        <v>199</v>
+      </c>
     </row>
     <row r="327" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
@@ -3954,6 +4233,9 @@
       <c r="B327">
         <v>4</v>
       </c>
+      <c r="C327" t="s">
+        <v>198</v>
+      </c>
     </row>
     <row r="328" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
@@ -3962,6 +4244,9 @@
       <c r="B328">
         <v>5</v>
       </c>
+      <c r="C328" t="s">
+        <v>199</v>
+      </c>
     </row>
     <row r="329" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
@@ -3970,6 +4255,9 @@
       <c r="B329">
         <v>6</v>
       </c>
+      <c r="C329" t="s">
+        <v>199</v>
+      </c>
     </row>
     <row r="330" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
@@ -3978,6 +4266,9 @@
       <c r="B330">
         <v>7</v>
       </c>
+      <c r="C330" t="s">
+        <v>198</v>
+      </c>
     </row>
     <row r="331" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
@@ -3986,6 +4277,9 @@
       <c r="B331">
         <v>8</v>
       </c>
+      <c r="C331" t="s">
+        <v>199</v>
+      </c>
     </row>
     <row r="333" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
@@ -3999,9 +4293,9 @@
       <c r="B334">
         <v>1</v>
       </c>
-      <c r="C334">
+      <c r="C334" t="str">
         <f>C324</f>
-        <v>0</v>
+        <v>YES</v>
       </c>
     </row>
     <row r="335" spans="1:3" x14ac:dyDescent="0.25">
@@ -4011,9 +4305,9 @@
       <c r="B335">
         <v>2</v>
       </c>
-      <c r="C335">
+      <c r="C335" t="str">
         <f>C325</f>
-        <v>0</v>
+        <v>NO</v>
       </c>
     </row>
     <row r="337" spans="1:3" x14ac:dyDescent="0.25">
@@ -4029,9 +4323,9 @@
         <f>INDEX(B324:B331,MATCH(A338,A324:A331,0))</f>
         <v>1</v>
       </c>
-      <c r="C338">
+      <c r="C338" t="str">
         <f>INDEX(C324:C331,MATCH(A338,A324:A331,0))</f>
-        <v>0</v>
+        <v>YES</v>
       </c>
     </row>
     <row r="339" spans="1:3" x14ac:dyDescent="0.25">
@@ -4042,9 +4336,9 @@
         <f>INDEX(B324:B331,MATCH(A339,A324:A331,0))</f>
         <v>2</v>
       </c>
-      <c r="C339">
+      <c r="C339" t="str">
         <f>INDEX(C324:C331,MATCH(A339,A324:A331,0))</f>
-        <v>0</v>
+        <v>NO</v>
       </c>
     </row>
     <row r="340" spans="1:3" x14ac:dyDescent="0.25">
@@ -4055,9 +4349,9 @@
         <f>INDEX(B324:B331,MATCH(A340,A324:A331,0))</f>
         <v>7</v>
       </c>
-      <c r="C340">
+      <c r="C340" t="str">
         <f>INDEX(C324:C331,MATCH(A340,A324:A331,0))</f>
-        <v>0</v>
+        <v>YES</v>
       </c>
     </row>
     <row r="341" spans="1:3" x14ac:dyDescent="0.25">
@@ -4068,9 +4362,9 @@
         <f>INDEX(B324:B331,MATCH(A341,A324:A331,0))</f>
         <v>6</v>
       </c>
-      <c r="C341">
+      <c r="C341" t="str">
         <f>INDEX(C324:C331,MATCH(A341,A324:A331,0))</f>
-        <v>0</v>
+        <v>NO</v>
       </c>
     </row>
     <row r="342" spans="1:3" x14ac:dyDescent="0.25">
@@ -4081,9 +4375,9 @@
         <f>INDEX(B324:B331,MATCH(A342,A324:A331,0))</f>
         <v>3</v>
       </c>
-      <c r="C342">
+      <c r="C342" t="str">
         <f>INDEX(C324:C331,MATCH(A342,A324:A331,0))</f>
-        <v>0</v>
+        <v>NO</v>
       </c>
     </row>
     <row r="343" spans="1:3" x14ac:dyDescent="0.25">
@@ -4094,9 +4388,9 @@
         <f>INDEX(B324:B331,MATCH(A343,A324:A331,0))</f>
         <v>8</v>
       </c>
-      <c r="C343">
+      <c r="C343" t="str">
         <f>INDEX(C324:C331,MATCH(A343,A324:A331,0))</f>
-        <v>0</v>
+        <v>NO</v>
       </c>
     </row>
     <row r="344" spans="1:3" x14ac:dyDescent="0.25">
@@ -4107,9 +4401,9 @@
         <f>INDEX(B324:B331,MATCH(A344,A324:A331,0))</f>
         <v>4</v>
       </c>
-      <c r="C344">
+      <c r="C344" t="str">
         <f>INDEX(C324:C331,MATCH(A344,A324:A331,0))</f>
-        <v>0</v>
+        <v>YES</v>
       </c>
     </row>
     <row r="345" spans="1:3" x14ac:dyDescent="0.25">
@@ -4120,9 +4414,9 @@
         <f>INDEX(B324:B331,MATCH(A345,A324:A331,0))</f>
         <v>5</v>
       </c>
-      <c r="C345">
+      <c r="C345" t="str">
         <f>INDEX(C324:C331,MATCH(A345,A324:A331,0))</f>
-        <v>0</v>
+        <v>NO</v>
       </c>
     </row>
     <row r="347" spans="1:3" x14ac:dyDescent="0.25">
@@ -4155,6 +4449,9 @@
       <c r="B353">
         <v>1</v>
       </c>
+      <c r="C353" t="s">
+        <v>198</v>
+      </c>
     </row>
     <row r="354" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
@@ -4163,6 +4460,9 @@
       <c r="B354">
         <v>2</v>
       </c>
+      <c r="C354" t="s">
+        <v>198</v>
+      </c>
     </row>
     <row r="355" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
@@ -4171,6 +4471,9 @@
       <c r="B355">
         <v>3</v>
       </c>
+      <c r="C355" t="s">
+        <v>199</v>
+      </c>
     </row>
     <row r="356" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
@@ -4179,6 +4482,9 @@
       <c r="B356">
         <v>4</v>
       </c>
+      <c r="C356" t="s">
+        <v>198</v>
+      </c>
     </row>
     <row r="357" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
@@ -4187,6 +4493,9 @@
       <c r="B357">
         <v>5</v>
       </c>
+      <c r="C357" t="s">
+        <v>199</v>
+      </c>
     </row>
     <row r="358" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
@@ -4195,6 +4504,9 @@
       <c r="B358">
         <v>6</v>
       </c>
+      <c r="C358" t="s">
+        <v>199</v>
+      </c>
     </row>
     <row r="359" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
@@ -4203,6 +4515,9 @@
       <c r="B359">
         <v>7</v>
       </c>
+      <c r="C359" t="s">
+        <v>198</v>
+      </c>
     </row>
     <row r="360" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
@@ -4211,6 +4526,9 @@
       <c r="B360">
         <v>8</v>
       </c>
+      <c r="C360" t="s">
+        <v>198</v>
+      </c>
     </row>
     <row r="362" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
@@ -4224,9 +4542,9 @@
       <c r="B363">
         <v>1</v>
       </c>
-      <c r="C363">
+      <c r="C363" t="str">
         <f>C353</f>
-        <v>0</v>
+        <v>YES</v>
       </c>
     </row>
     <row r="364" spans="1:3" x14ac:dyDescent="0.25">
@@ -4236,9 +4554,9 @@
       <c r="B364">
         <v>2</v>
       </c>
-      <c r="C364">
+      <c r="C364" t="str">
         <f>C354</f>
-        <v>0</v>
+        <v>YES</v>
       </c>
     </row>
     <row r="366" spans="1:3" x14ac:dyDescent="0.25">
@@ -4254,9 +4572,9 @@
         <f>INDEX(B353:B360,MATCH(A367,A353:A360,0))</f>
         <v>6</v>
       </c>
-      <c r="C367">
+      <c r="C367" t="str">
         <f>INDEX(C353:C360,MATCH(A367,A353:A360,0))</f>
-        <v>0</v>
+        <v>NO</v>
       </c>
     </row>
     <row r="368" spans="1:3" x14ac:dyDescent="0.25">
@@ -4267,9 +4585,9 @@
         <f>INDEX(B353:B360,MATCH(A368,A353:A360,0))</f>
         <v>1</v>
       </c>
-      <c r="C368">
+      <c r="C368" t="str">
         <f>INDEX(C353:C360,MATCH(A368,A353:A360,0))</f>
-        <v>0</v>
+        <v>YES</v>
       </c>
     </row>
     <row r="369" spans="1:3" x14ac:dyDescent="0.25">
@@ -4280,9 +4598,9 @@
         <f>INDEX(B353:B360,MATCH(A369,A353:A360,0))</f>
         <v>7</v>
       </c>
-      <c r="C369">
+      <c r="C369" t="str">
         <f>INDEX(C353:C360,MATCH(A369,A353:A360,0))</f>
-        <v>0</v>
+        <v>YES</v>
       </c>
     </row>
     <row r="370" spans="1:3" x14ac:dyDescent="0.25">
@@ -4293,9 +4611,9 @@
         <f>INDEX(B353:B360,MATCH(A370,A353:A360,0))</f>
         <v>3</v>
       </c>
-      <c r="C370">
+      <c r="C370" t="str">
         <f>INDEX(C353:C360,MATCH(A370,A353:A360,0))</f>
-        <v>0</v>
+        <v>NO</v>
       </c>
     </row>
     <row r="371" spans="1:3" x14ac:dyDescent="0.25">
@@ -4306,9 +4624,9 @@
         <f>INDEX(B353:B360,MATCH(A371,A353:A360,0))</f>
         <v>2</v>
       </c>
-      <c r="C371">
+      <c r="C371" t="str">
         <f>INDEX(C353:C360,MATCH(A371,A353:A360,0))</f>
-        <v>0</v>
+        <v>YES</v>
       </c>
     </row>
     <row r="372" spans="1:3" x14ac:dyDescent="0.25">
@@ -4319,9 +4637,9 @@
         <f>INDEX(B353:B360,MATCH(A372,A353:A360,0))</f>
         <v>4</v>
       </c>
-      <c r="C372">
+      <c r="C372" t="str">
         <f>INDEX(C353:C360,MATCH(A372,A353:A360,0))</f>
-        <v>0</v>
+        <v>YES</v>
       </c>
     </row>
     <row r="373" spans="1:3" x14ac:dyDescent="0.25">
@@ -4332,9 +4650,9 @@
         <f>INDEX(B353:B360,MATCH(A373,A353:A360,0))</f>
         <v>5</v>
       </c>
-      <c r="C373">
+      <c r="C373" t="str">
         <f>INDEX(C353:C360,MATCH(A373,A353:A360,0))</f>
-        <v>0</v>
+        <v>NO</v>
       </c>
     </row>
     <row r="374" spans="1:3" x14ac:dyDescent="0.25">
@@ -4345,9 +4663,9 @@
         <f>INDEX(B353:B360,MATCH(A374,A353:A360,0))</f>
         <v>8</v>
       </c>
-      <c r="C374">
+      <c r="C374" t="str">
         <f>INDEX(C353:C360,MATCH(A374,A353:A360,0))</f>
-        <v>0</v>
+        <v>YES</v>
       </c>
     </row>
     <row r="376" spans="1:3" x14ac:dyDescent="0.25">
@@ -4380,6 +4698,9 @@
       <c r="B382">
         <v>1</v>
       </c>
+      <c r="C382" t="s">
+        <v>199</v>
+      </c>
     </row>
     <row r="383" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
@@ -4388,6 +4709,9 @@
       <c r="B383">
         <v>2</v>
       </c>
+      <c r="C383" t="s">
+        <v>199</v>
+      </c>
     </row>
     <row r="384" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
@@ -4396,6 +4720,9 @@
       <c r="B384">
         <v>3</v>
       </c>
+      <c r="C384" t="s">
+        <v>198</v>
+      </c>
     </row>
     <row r="385" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
@@ -4404,6 +4731,9 @@
       <c r="B385">
         <v>4</v>
       </c>
+      <c r="C385" t="s">
+        <v>198</v>
+      </c>
     </row>
     <row r="386" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
@@ -4412,6 +4742,9 @@
       <c r="B386">
         <v>5</v>
       </c>
+      <c r="C386" t="s">
+        <v>198</v>
+      </c>
     </row>
     <row r="387" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
@@ -4420,6 +4753,9 @@
       <c r="B387">
         <v>6</v>
       </c>
+      <c r="C387" t="s">
+        <v>198</v>
+      </c>
     </row>
     <row r="388" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
@@ -4428,6 +4764,9 @@
       <c r="B388">
         <v>7</v>
       </c>
+      <c r="C388" t="s">
+        <v>198</v>
+      </c>
     </row>
     <row r="389" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
@@ -4436,6 +4775,9 @@
       <c r="B389">
         <v>8</v>
       </c>
+      <c r="C389" t="s">
+        <v>198</v>
+      </c>
     </row>
     <row r="391" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
@@ -4449,9 +4791,9 @@
       <c r="B392">
         <v>1</v>
       </c>
-      <c r="C392">
+      <c r="C392" t="str">
         <f>C382</f>
-        <v>0</v>
+        <v>NO</v>
       </c>
     </row>
     <row r="393" spans="1:3" x14ac:dyDescent="0.25">
@@ -4461,9 +4803,9 @@
       <c r="B393">
         <v>2</v>
       </c>
-      <c r="C393">
+      <c r="C393" t="str">
         <f>C383</f>
-        <v>0</v>
+        <v>NO</v>
       </c>
     </row>
     <row r="395" spans="1:3" x14ac:dyDescent="0.25">
@@ -4479,9 +4821,9 @@
         <f>INDEX(B382:B389,MATCH(A396,A382:A389,0))</f>
         <v>1</v>
       </c>
-      <c r="C396">
+      <c r="C396" t="str">
         <f>INDEX(C382:C389,MATCH(A396,A382:A389,0))</f>
-        <v>0</v>
+        <v>NO</v>
       </c>
     </row>
     <row r="397" spans="1:3" x14ac:dyDescent="0.25">
@@ -4492,9 +4834,9 @@
         <f>INDEX(B382:B389,MATCH(A397,A382:A389,0))</f>
         <v>8</v>
       </c>
-      <c r="C397">
+      <c r="C397" t="str">
         <f>INDEX(C382:C389,MATCH(A397,A382:A389,0))</f>
-        <v>0</v>
+        <v>YES</v>
       </c>
     </row>
     <row r="398" spans="1:3" x14ac:dyDescent="0.25">
@@ -4505,9 +4847,9 @@
         <f>INDEX(B382:B389,MATCH(A398,A382:A389,0))</f>
         <v>7</v>
       </c>
-      <c r="C398">
+      <c r="C398" t="str">
         <f>INDEX(C382:C389,MATCH(A398,A382:A389,0))</f>
-        <v>0</v>
+        <v>YES</v>
       </c>
     </row>
     <row r="399" spans="1:3" x14ac:dyDescent="0.25">
@@ -4518,9 +4860,9 @@
         <f>INDEX(B382:B389,MATCH(A399,A382:A389,0))</f>
         <v>5</v>
       </c>
-      <c r="C399">
+      <c r="C399" t="str">
         <f>INDEX(C382:C389,MATCH(A399,A382:A389,0))</f>
-        <v>0</v>
+        <v>YES</v>
       </c>
     </row>
     <row r="400" spans="1:3" x14ac:dyDescent="0.25">
@@ -4531,9 +4873,9 @@
         <f>INDEX(B382:B389,MATCH(A400,A382:A389,0))</f>
         <v>4</v>
       </c>
-      <c r="C400">
+      <c r="C400" t="str">
         <f>INDEX(C382:C389,MATCH(A400,A382:A389,0))</f>
-        <v>0</v>
+        <v>YES</v>
       </c>
     </row>
     <row r="401" spans="1:3" x14ac:dyDescent="0.25">
@@ -4544,9 +4886,9 @@
         <f>INDEX(B382:B389,MATCH(A401,A382:A389,0))</f>
         <v>6</v>
       </c>
-      <c r="C401">
+      <c r="C401" t="str">
         <f>INDEX(C382:C389,MATCH(A401,A382:A389,0))</f>
-        <v>0</v>
+        <v>YES</v>
       </c>
     </row>
     <row r="402" spans="1:3" x14ac:dyDescent="0.25">
@@ -4557,9 +4899,9 @@
         <f>INDEX(B382:B389,MATCH(A402,A382:A389,0))</f>
         <v>2</v>
       </c>
-      <c r="C402">
+      <c r="C402" t="str">
         <f>INDEX(C382:C389,MATCH(A402,A382:A389,0))</f>
-        <v>0</v>
+        <v>NO</v>
       </c>
     </row>
     <row r="403" spans="1:3" x14ac:dyDescent="0.25">
@@ -4570,9 +4912,9 @@
         <f>INDEX(B382:B389,MATCH(A403,A382:A389,0))</f>
         <v>3</v>
       </c>
-      <c r="C403">
+      <c r="C403" t="str">
         <f>INDEX(C382:C389,MATCH(A403,A382:A389,0))</f>
-        <v>0</v>
+        <v>YES</v>
       </c>
     </row>
     <row r="405" spans="1:3" x14ac:dyDescent="0.25">
@@ -4605,6 +4947,9 @@
       <c r="B411">
         <v>1</v>
       </c>
+      <c r="C411" t="s">
+        <v>199</v>
+      </c>
     </row>
     <row r="412" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
@@ -4613,6 +4958,9 @@
       <c r="B412">
         <v>2</v>
       </c>
+      <c r="C412" t="s">
+        <v>198</v>
+      </c>
     </row>
     <row r="413" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
@@ -4621,6 +4969,9 @@
       <c r="B413">
         <v>3</v>
       </c>
+      <c r="C413" t="s">
+        <v>199</v>
+      </c>
     </row>
     <row r="414" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
@@ -4629,6 +4980,9 @@
       <c r="B414">
         <v>4</v>
       </c>
+      <c r="C414" t="s">
+        <v>198</v>
+      </c>
     </row>
     <row r="415" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
@@ -4637,6 +4991,9 @@
       <c r="B415">
         <v>5</v>
       </c>
+      <c r="C415" t="s">
+        <v>199</v>
+      </c>
     </row>
     <row r="416" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A416" t="s">
@@ -4645,6 +5002,9 @@
       <c r="B416">
         <v>6</v>
       </c>
+      <c r="C416" t="s">
+        <v>199</v>
+      </c>
     </row>
     <row r="417" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
@@ -4653,6 +5013,9 @@
       <c r="B417">
         <v>7</v>
       </c>
+      <c r="C417" t="s">
+        <v>198</v>
+      </c>
     </row>
     <row r="418" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
@@ -4661,6 +5024,9 @@
       <c r="B418">
         <v>8</v>
       </c>
+      <c r="C418" t="s">
+        <v>199</v>
+      </c>
     </row>
     <row r="420" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
@@ -4674,9 +5040,9 @@
       <c r="B421">
         <v>1</v>
       </c>
-      <c r="C421">
+      <c r="C421" t="str">
         <f>C411</f>
-        <v>0</v>
+        <v>NO</v>
       </c>
     </row>
     <row r="422" spans="1:3" x14ac:dyDescent="0.25">
@@ -4686,9 +5052,9 @@
       <c r="B422">
         <v>2</v>
       </c>
-      <c r="C422">
+      <c r="C422" t="str">
         <f>C412</f>
-        <v>0</v>
+        <v>YES</v>
       </c>
     </row>
     <row r="424" spans="1:3" x14ac:dyDescent="0.25">
@@ -4704,9 +5070,9 @@
         <f>INDEX(B411:B418,MATCH(A425,A411:A418,0))</f>
         <v>7</v>
       </c>
-      <c r="C425">
+      <c r="C425" t="str">
         <f>INDEX(C411:C418,MATCH(A425,A411:A418,0))</f>
-        <v>0</v>
+        <v>YES</v>
       </c>
     </row>
     <row r="426" spans="1:3" x14ac:dyDescent="0.25">
@@ -4717,9 +5083,9 @@
         <f>INDEX(B411:B418,MATCH(A426,A411:A418,0))</f>
         <v>1</v>
       </c>
-      <c r="C426">
+      <c r="C426" t="str">
         <f>INDEX(C411:C418,MATCH(A426,A411:A418,0))</f>
-        <v>0</v>
+        <v>NO</v>
       </c>
     </row>
     <row r="427" spans="1:3" x14ac:dyDescent="0.25">
@@ -4730,9 +5096,9 @@
         <f>INDEX(B411:B418,MATCH(A427,A411:A418,0))</f>
         <v>5</v>
       </c>
-      <c r="C427">
+      <c r="C427" t="str">
         <f>INDEX(C411:C418,MATCH(A427,A411:A418,0))</f>
-        <v>0</v>
+        <v>NO</v>
       </c>
     </row>
     <row r="428" spans="1:3" x14ac:dyDescent="0.25">
@@ -4743,9 +5109,9 @@
         <f>INDEX(B411:B418,MATCH(A428,A411:A418,0))</f>
         <v>2</v>
       </c>
-      <c r="C428">
+      <c r="C428" t="str">
         <f>INDEX(C411:C418,MATCH(A428,A411:A418,0))</f>
-        <v>0</v>
+        <v>YES</v>
       </c>
     </row>
     <row r="429" spans="1:3" x14ac:dyDescent="0.25">
@@ -4756,9 +5122,9 @@
         <f>INDEX(B411:B418,MATCH(A429,A411:A418,0))</f>
         <v>4</v>
       </c>
-      <c r="C429">
+      <c r="C429" t="str">
         <f>INDEX(C411:C418,MATCH(A429,A411:A418,0))</f>
-        <v>0</v>
+        <v>YES</v>
       </c>
     </row>
     <row r="430" spans="1:3" x14ac:dyDescent="0.25">
@@ -4769,9 +5135,9 @@
         <f>INDEX(B411:B418,MATCH(A430,A411:A418,0))</f>
         <v>3</v>
       </c>
-      <c r="C430">
+      <c r="C430" t="str">
         <f>INDEX(C411:C418,MATCH(A430,A411:A418,0))</f>
-        <v>0</v>
+        <v>NO</v>
       </c>
     </row>
     <row r="431" spans="1:3" x14ac:dyDescent="0.25">
@@ -4782,9 +5148,9 @@
         <f>INDEX(B411:B418,MATCH(A431,A411:A418,0))</f>
         <v>6</v>
       </c>
-      <c r="C431">
+      <c r="C431" t="str">
         <f>INDEX(C411:C418,MATCH(A431,A411:A418,0))</f>
-        <v>0</v>
+        <v>NO</v>
       </c>
     </row>
     <row r="432" spans="1:3" x14ac:dyDescent="0.25">
@@ -4795,22 +5161,22 @@
         <f>INDEX(B411:B418,MATCH(A432,A411:A418,0))</f>
         <v>8</v>
       </c>
-      <c r="C432">
+      <c r="C432" t="str">
         <f>INDEX(C411:C418,MATCH(A432,A411:A418,0))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="434" spans="1:2" x14ac:dyDescent="0.25">
+        <v>NO</v>
+      </c>
+    </row>
+    <row r="434" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A434" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="436" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A436" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="438" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A438" t="s">
         <v>1</v>
       </c>
@@ -4818,73 +5184,97 @@
         <v>128</v>
       </c>
     </row>
-    <row r="439" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A439" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="440" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A440" t="s">
         <v>129</v>
       </c>
       <c r="B440">
         <v>1</v>
       </c>
-    </row>
-    <row r="441" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C440" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="441" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A441" t="s">
         <v>33</v>
       </c>
       <c r="B441">
         <v>2</v>
       </c>
-    </row>
-    <row r="442" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C441" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="442" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A442" t="s">
         <v>130</v>
       </c>
       <c r="B442">
         <v>3</v>
       </c>
-    </row>
-    <row r="443" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C442" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="443" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A443" t="s">
         <v>125</v>
       </c>
       <c r="B443">
         <v>4</v>
       </c>
-    </row>
-    <row r="444" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C443" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="444" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A444" t="s">
         <v>37</v>
       </c>
       <c r="B444">
         <v>5</v>
       </c>
-    </row>
-    <row r="445" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C444" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="445" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A445" t="s">
         <v>131</v>
       </c>
       <c r="B445">
         <v>6</v>
       </c>
-    </row>
-    <row r="446" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C445" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="446" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A446" t="s">
         <v>132</v>
       </c>
       <c r="B446">
         <v>7</v>
       </c>
-    </row>
-    <row r="447" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C446" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="447" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A447" t="s">
         <v>133</v>
       </c>
       <c r="B447">
         <v>8</v>
+      </c>
+      <c r="C447" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="449" spans="1:3" x14ac:dyDescent="0.25">
@@ -4899,9 +5289,9 @@
       <c r="B450">
         <v>1</v>
       </c>
-      <c r="C450">
+      <c r="C450" t="str">
         <f>C440</f>
-        <v>0</v>
+        <v>YES</v>
       </c>
     </row>
     <row r="451" spans="1:3" x14ac:dyDescent="0.25">
@@ -4911,9 +5301,9 @@
       <c r="B451">
         <v>2</v>
       </c>
-      <c r="C451">
+      <c r="C451" t="str">
         <f>C441</f>
-        <v>0</v>
+        <v>NO</v>
       </c>
     </row>
     <row r="453" spans="1:3" x14ac:dyDescent="0.25">
@@ -4929,9 +5319,9 @@
         <f>INDEX(B440:B447,MATCH(A454,A440:A447,0))</f>
         <v>6</v>
       </c>
-      <c r="C454">
+      <c r="C454" t="str">
         <f>INDEX(C440:C447,MATCH(A454,A440:A447,0))</f>
-        <v>0</v>
+        <v>YES</v>
       </c>
     </row>
     <row r="455" spans="1:3" x14ac:dyDescent="0.25">
@@ -4942,9 +5332,9 @@
         <f>INDEX(B440:B447,MATCH(A455,A440:A447,0))</f>
         <v>3</v>
       </c>
-      <c r="C455">
+      <c r="C455" t="str">
         <f>INDEX(C440:C447,MATCH(A455,A440:A447,0))</f>
-        <v>0</v>
+        <v>NO</v>
       </c>
     </row>
     <row r="456" spans="1:3" x14ac:dyDescent="0.25">
@@ -4955,9 +5345,9 @@
         <f>INDEX(B440:B447,MATCH(A456,A440:A447,0))</f>
         <v>7</v>
       </c>
-      <c r="C456">
+      <c r="C456" t="str">
         <f>INDEX(C440:C447,MATCH(A456,A440:A447,0))</f>
-        <v>0</v>
+        <v>NO</v>
       </c>
     </row>
     <row r="457" spans="1:3" x14ac:dyDescent="0.25">
@@ -4968,9 +5358,9 @@
         <f>INDEX(B440:B447,MATCH(A457,A440:A447,0))</f>
         <v>1</v>
       </c>
-      <c r="C457">
+      <c r="C457" t="str">
         <f>INDEX(C440:C447,MATCH(A457,A440:A447,0))</f>
-        <v>0</v>
+        <v>YES</v>
       </c>
     </row>
     <row r="458" spans="1:3" x14ac:dyDescent="0.25">
@@ -4981,9 +5371,9 @@
         <f>INDEX(B440:B447,MATCH(A458,A440:A447,0))</f>
         <v>8</v>
       </c>
-      <c r="C458">
+      <c r="C458" t="str">
         <f>INDEX(C440:C447,MATCH(A458,A440:A447,0))</f>
-        <v>0</v>
+        <v>NO</v>
       </c>
     </row>
     <row r="459" spans="1:3" x14ac:dyDescent="0.25">
@@ -4994,9 +5384,9 @@
         <f>INDEX(B440:B447,MATCH(A459,A440:A447,0))</f>
         <v>5</v>
       </c>
-      <c r="C459">
+      <c r="C459" t="str">
         <f>INDEX(C440:C447,MATCH(A459,A440:A447,0))</f>
-        <v>0</v>
+        <v>YES</v>
       </c>
     </row>
     <row r="460" spans="1:3" x14ac:dyDescent="0.25">
@@ -5007,9 +5397,9 @@
         <f>INDEX(B440:B447,MATCH(A460,A440:A447,0))</f>
         <v>4</v>
       </c>
-      <c r="C460">
+      <c r="C460" t="str">
         <f>INDEX(C440:C447,MATCH(A460,A440:A447,0))</f>
-        <v>0</v>
+        <v>NO</v>
       </c>
     </row>
     <row r="461" spans="1:3" x14ac:dyDescent="0.25">
@@ -5020,9 +5410,9 @@
         <f>INDEX(B440:B447,MATCH(A461,A440:A447,0))</f>
         <v>2</v>
       </c>
-      <c r="C461">
+      <c r="C461" t="str">
         <f>INDEX(C440:C447,MATCH(A461,A440:A447,0))</f>
-        <v>0</v>
+        <v>NO</v>
       </c>
     </row>
     <row r="463" spans="1:3" x14ac:dyDescent="0.25">
@@ -5055,6 +5445,9 @@
       <c r="B469">
         <v>1</v>
       </c>
+      <c r="C469" t="s">
+        <v>198</v>
+      </c>
     </row>
     <row r="470" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A470" t="s">
@@ -5063,6 +5456,9 @@
       <c r="B470">
         <v>2</v>
       </c>
+      <c r="C470" t="s">
+        <v>199</v>
+      </c>
     </row>
     <row r="471" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A471" t="s">
@@ -5071,6 +5467,9 @@
       <c r="B471">
         <v>3</v>
       </c>
+      <c r="C471" t="s">
+        <v>198</v>
+      </c>
     </row>
     <row r="472" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A472" t="s">
@@ -5079,6 +5478,9 @@
       <c r="B472">
         <v>4</v>
       </c>
+      <c r="C472" t="s">
+        <v>199</v>
+      </c>
     </row>
     <row r="473" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A473" t="s">
@@ -5087,6 +5489,9 @@
       <c r="B473">
         <v>5</v>
       </c>
+      <c r="C473" t="s">
+        <v>199</v>
+      </c>
     </row>
     <row r="474" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A474" t="s">
@@ -5095,6 +5500,9 @@
       <c r="B474">
         <v>6</v>
       </c>
+      <c r="C474" t="s">
+        <v>199</v>
+      </c>
     </row>
     <row r="475" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A475" t="s">
@@ -5103,6 +5511,9 @@
       <c r="B475">
         <v>7</v>
       </c>
+      <c r="C475" t="s">
+        <v>199</v>
+      </c>
     </row>
     <row r="476" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A476" t="s">
@@ -5111,6 +5522,9 @@
       <c r="B476">
         <v>8</v>
       </c>
+      <c r="C476" t="s">
+        <v>199</v>
+      </c>
     </row>
     <row r="478" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A478" t="s">
@@ -5124,9 +5538,9 @@
       <c r="B479">
         <v>1</v>
       </c>
-      <c r="C479">
+      <c r="C479" t="str">
         <f>C469</f>
-        <v>0</v>
+        <v>YES</v>
       </c>
     </row>
     <row r="480" spans="1:3" x14ac:dyDescent="0.25">
@@ -5136,9 +5550,9 @@
       <c r="B480">
         <v>2</v>
       </c>
-      <c r="C480">
+      <c r="C480" t="str">
         <f>C470</f>
-        <v>0</v>
+        <v>NO</v>
       </c>
     </row>
     <row r="482" spans="1:3" x14ac:dyDescent="0.25">
@@ -5154,9 +5568,9 @@
         <f>INDEX(B469:B476,MATCH(A483,A469:A476,0))</f>
         <v>2</v>
       </c>
-      <c r="C483">
+      <c r="C483" t="str">
         <f>INDEX(C469:C476,MATCH(A483,A469:A476,0))</f>
-        <v>0</v>
+        <v>NO</v>
       </c>
     </row>
     <row r="484" spans="1:3" x14ac:dyDescent="0.25">
@@ -5167,9 +5581,9 @@
         <f>INDEX(B469:B476,MATCH(A484,A469:A476,0))</f>
         <v>3</v>
       </c>
-      <c r="C484">
+      <c r="C484" t="str">
         <f>INDEX(C469:C476,MATCH(A484,A469:A476,0))</f>
-        <v>0</v>
+        <v>YES</v>
       </c>
     </row>
     <row r="485" spans="1:3" x14ac:dyDescent="0.25">
@@ -5180,9 +5594,9 @@
         <f>INDEX(B469:B476,MATCH(A485,A469:A476,0))</f>
         <v>1</v>
       </c>
-      <c r="C485">
+      <c r="C485" t="str">
         <f>INDEX(C469:C476,MATCH(A485,A469:A476,0))</f>
-        <v>0</v>
+        <v>YES</v>
       </c>
     </row>
     <row r="486" spans="1:3" x14ac:dyDescent="0.25">
@@ -5193,9 +5607,9 @@
         <f>INDEX(B469:B476,MATCH(A486,A469:A476,0))</f>
         <v>4</v>
       </c>
-      <c r="C486">
+      <c r="C486" t="str">
         <f>INDEX(C469:C476,MATCH(A486,A469:A476,0))</f>
-        <v>0</v>
+        <v>NO</v>
       </c>
     </row>
     <row r="487" spans="1:3" x14ac:dyDescent="0.25">
@@ -5206,9 +5620,9 @@
         <f>INDEX(B469:B476,MATCH(A487,A469:A476,0))</f>
         <v>7</v>
       </c>
-      <c r="C487">
+      <c r="C487" t="str">
         <f>INDEX(C469:C476,MATCH(A487,A469:A476,0))</f>
-        <v>0</v>
+        <v>NO</v>
       </c>
     </row>
     <row r="488" spans="1:3" x14ac:dyDescent="0.25">
@@ -5219,9 +5633,9 @@
         <f>INDEX(B469:B476,MATCH(A488,A469:A476,0))</f>
         <v>5</v>
       </c>
-      <c r="C488">
+      <c r="C488" t="str">
         <f>INDEX(C469:C476,MATCH(A488,A469:A476,0))</f>
-        <v>0</v>
+        <v>NO</v>
       </c>
     </row>
     <row r="489" spans="1:3" x14ac:dyDescent="0.25">
@@ -5232,9 +5646,9 @@
         <f>INDEX(B469:B476,MATCH(A489,A469:A476,0))</f>
         <v>8</v>
       </c>
-      <c r="C489">
+      <c r="C489" t="str">
         <f>INDEX(C469:C476,MATCH(A489,A469:A476,0))</f>
-        <v>0</v>
+        <v>NO</v>
       </c>
     </row>
     <row r="490" spans="1:3" x14ac:dyDescent="0.25">
@@ -5245,9 +5659,9 @@
         <f>INDEX(B469:B476,MATCH(A490,A469:A476,0))</f>
         <v>6</v>
       </c>
-      <c r="C490">
+      <c r="C490" t="str">
         <f>INDEX(C469:C476,MATCH(A490,A469:A476,0))</f>
-        <v>0</v>
+        <v>NO</v>
       </c>
     </row>
     <row r="492" spans="1:3" x14ac:dyDescent="0.25">
@@ -5280,6 +5694,9 @@
       <c r="B498">
         <v>1</v>
       </c>
+      <c r="C498" t="s">
+        <v>198</v>
+      </c>
     </row>
     <row r="499" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A499" t="s">
@@ -5288,6 +5705,9 @@
       <c r="B499">
         <v>2</v>
       </c>
+      <c r="C499" t="s">
+        <v>198</v>
+      </c>
     </row>
     <row r="500" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A500" t="s">
@@ -5296,6 +5716,9 @@
       <c r="B500">
         <v>3</v>
       </c>
+      <c r="C500" t="s">
+        <v>198</v>
+      </c>
     </row>
     <row r="501" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A501" t="s">
@@ -5304,6 +5727,9 @@
       <c r="B501">
         <v>4</v>
       </c>
+      <c r="C501" t="s">
+        <v>199</v>
+      </c>
     </row>
     <row r="502" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A502" t="s">
@@ -5312,6 +5738,9 @@
       <c r="B502">
         <v>5</v>
       </c>
+      <c r="C502" t="s">
+        <v>198</v>
+      </c>
     </row>
     <row r="503" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A503" t="s">
@@ -5320,6 +5749,9 @@
       <c r="B503">
         <v>6</v>
       </c>
+      <c r="C503" t="s">
+        <v>199</v>
+      </c>
     </row>
     <row r="504" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A504" t="s">
@@ -5328,6 +5760,9 @@
       <c r="B504">
         <v>7</v>
       </c>
+      <c r="C504" t="s">
+        <v>199</v>
+      </c>
     </row>
     <row r="506" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A506" t="s">
@@ -5341,9 +5776,9 @@
       <c r="B507">
         <v>1</v>
       </c>
-      <c r="C507">
-        <f>C497</f>
-        <v>0</v>
+      <c r="C507" t="str">
+        <f>C498</f>
+        <v>YES</v>
       </c>
     </row>
     <row r="508" spans="1:3" x14ac:dyDescent="0.25">
@@ -5353,9 +5788,9 @@
       <c r="B508">
         <v>2</v>
       </c>
-      <c r="C508">
-        <f>C498</f>
-        <v>0</v>
+      <c r="C508" t="str">
+        <f>C499</f>
+        <v>YES</v>
       </c>
     </row>
     <row r="510" spans="1:3" x14ac:dyDescent="0.25">
@@ -5371,9 +5806,9 @@
         <f>INDEX(B497:B504,MATCH(A511,A497:A504,0))</f>
         <v>5</v>
       </c>
-      <c r="C511">
+      <c r="C511" t="str">
         <f>INDEX(C497:C504,MATCH(A511,A497:A504,0))</f>
-        <v>0</v>
+        <v>YES</v>
       </c>
     </row>
     <row r="512" spans="1:3" x14ac:dyDescent="0.25">
@@ -5384,9 +5819,9 @@
         <f>INDEX(B497:B504,MATCH(A512,A497:A504,0))</f>
         <v>3</v>
       </c>
-      <c r="C512">
+      <c r="C512" t="str">
         <f>INDEX(C497:C504,MATCH(A512,A497:A504,0))</f>
-        <v>0</v>
+        <v>YES</v>
       </c>
     </row>
     <row r="513" spans="1:3" x14ac:dyDescent="0.25">
@@ -5397,9 +5832,9 @@
         <f>INDEX(B497:B504,MATCH(A513,A497:A504,0))</f>
         <v>6</v>
       </c>
-      <c r="C513">
+      <c r="C513" t="str">
         <f>INDEX(C497:C504,MATCH(A513,A497:A504,0))</f>
-        <v>0</v>
+        <v>NO</v>
       </c>
     </row>
     <row r="514" spans="1:3" x14ac:dyDescent="0.25">
@@ -5410,9 +5845,9 @@
         <f>INDEX(B497:B504,MATCH(A514,A497:A504,0))</f>
         <v>1</v>
       </c>
-      <c r="C514">
+      <c r="C514" t="str">
         <f>INDEX(C497:C504,MATCH(A514,A497:A504,0))</f>
-        <v>0</v>
+        <v>YES</v>
       </c>
     </row>
     <row r="515" spans="1:3" x14ac:dyDescent="0.25">
@@ -5423,9 +5858,9 @@
         <f>INDEX(B497:B504,MATCH(A515,A497:A504,0))</f>
         <v>2</v>
       </c>
-      <c r="C515">
+      <c r="C515" t="str">
         <f>INDEX(C497:C504,MATCH(A515,A497:A504,0))</f>
-        <v>0</v>
+        <v>YES</v>
       </c>
     </row>
     <row r="516" spans="1:3" x14ac:dyDescent="0.25">
@@ -5436,9 +5871,9 @@
         <f>INDEX(B497:B504,MATCH(A516,A497:A504,0))</f>
         <v>4</v>
       </c>
-      <c r="C516">
+      <c r="C516" t="str">
         <f>INDEX(C497:C504,MATCH(A516,A497:A504,0))</f>
-        <v>0</v>
+        <v>NO</v>
       </c>
     </row>
     <row r="517" spans="1:3" x14ac:dyDescent="0.25">
@@ -5449,9 +5884,9 @@
         <f>INDEX(B497:B504,MATCH(A517,A497:A504,0))</f>
         <v>7</v>
       </c>
-      <c r="C517">
+      <c r="C517" t="str">
         <f>INDEX(C497:C504,MATCH(A517,A497:A504,0))</f>
-        <v>0</v>
+        <v>NO</v>
       </c>
     </row>
     <row r="519" spans="1:3" x14ac:dyDescent="0.25">
@@ -5484,6 +5919,9 @@
       <c r="B525">
         <v>1</v>
       </c>
+      <c r="C525" t="s">
+        <v>198</v>
+      </c>
     </row>
     <row r="526" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A526" t="s">
@@ -5492,6 +5930,9 @@
       <c r="B526">
         <v>2</v>
       </c>
+      <c r="C526" t="s">
+        <v>198</v>
+      </c>
     </row>
     <row r="527" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A527" t="s">
@@ -5500,6 +5941,9 @@
       <c r="B527">
         <v>3</v>
       </c>
+      <c r="C527" t="s">
+        <v>198</v>
+      </c>
     </row>
     <row r="528" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A528" t="s">
@@ -5508,6 +5952,9 @@
       <c r="B528">
         <v>4</v>
       </c>
+      <c r="C528" t="s">
+        <v>198</v>
+      </c>
     </row>
     <row r="529" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A529" t="s">
@@ -5516,6 +5963,9 @@
       <c r="B529">
         <v>5</v>
       </c>
+      <c r="C529" t="s">
+        <v>199</v>
+      </c>
     </row>
     <row r="530" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A530" t="s">
@@ -5524,6 +5974,9 @@
       <c r="B530">
         <v>6</v>
       </c>
+      <c r="C530" t="s">
+        <v>198</v>
+      </c>
     </row>
     <row r="531" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A531" t="s">
@@ -5532,6 +5985,9 @@
       <c r="B531">
         <v>7</v>
       </c>
+      <c r="C531" t="s">
+        <v>198</v>
+      </c>
     </row>
     <row r="532" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A532" t="s">
@@ -5540,6 +5996,9 @@
       <c r="B532">
         <v>8</v>
       </c>
+      <c r="C532" t="s">
+        <v>198</v>
+      </c>
     </row>
     <row r="534" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A534" t="s">
@@ -5553,9 +6012,9 @@
       <c r="B535">
         <v>1</v>
       </c>
-      <c r="C535">
+      <c r="C535" t="str">
         <f>C525</f>
-        <v>0</v>
+        <v>YES</v>
       </c>
     </row>
     <row r="536" spans="1:3" x14ac:dyDescent="0.25">
@@ -5565,9 +6024,9 @@
       <c r="B536">
         <v>2</v>
       </c>
-      <c r="C536">
+      <c r="C536" t="str">
         <f>C526</f>
-        <v>0</v>
+        <v>YES</v>
       </c>
     </row>
     <row r="538" spans="1:3" x14ac:dyDescent="0.25">
@@ -5583,9 +6042,9 @@
         <f>INDEX(B525:B532,MATCH(A539,A525:A532,0))</f>
         <v>4</v>
       </c>
-      <c r="C539">
+      <c r="C539" t="str">
         <f>INDEX(C525:C532,MATCH(A539,A525:A532,0))</f>
-        <v>0</v>
+        <v>YES</v>
       </c>
     </row>
     <row r="540" spans="1:3" x14ac:dyDescent="0.25">
@@ -5596,9 +6055,9 @@
         <f>INDEX(B525:B532,MATCH(A540,A525:A532,0))</f>
         <v>2</v>
       </c>
-      <c r="C540">
+      <c r="C540" t="str">
         <f>INDEX(C525:C532,MATCH(A540,A525:A532,0))</f>
-        <v>0</v>
+        <v>YES</v>
       </c>
     </row>
     <row r="541" spans="1:3" x14ac:dyDescent="0.25">
@@ -5609,9 +6068,9 @@
         <f>INDEX(B525:B532,MATCH(A541,A525:A532,0))</f>
         <v>3</v>
       </c>
-      <c r="C541">
+      <c r="C541" t="str">
         <f>INDEX(C525:C532,MATCH(A541,A525:A532,0))</f>
-        <v>0</v>
+        <v>YES</v>
       </c>
     </row>
     <row r="542" spans="1:3" x14ac:dyDescent="0.25">
@@ -5622,9 +6081,9 @@
         <f>INDEX(B525:B532,MATCH(A542,A525:A532,0))</f>
         <v>1</v>
       </c>
-      <c r="C542">
+      <c r="C542" t="str">
         <f>INDEX(C525:C532,MATCH(A542,A525:A532,0))</f>
-        <v>0</v>
+        <v>YES</v>
       </c>
     </row>
     <row r="543" spans="1:3" x14ac:dyDescent="0.25">
@@ -5635,9 +6094,9 @@
         <f>INDEX(B525:B532,MATCH(A543,A525:A532,0))</f>
         <v>7</v>
       </c>
-      <c r="C543">
+      <c r="C543" t="str">
         <f>INDEX(C525:C532,MATCH(A543,A525:A532,0))</f>
-        <v>0</v>
+        <v>YES</v>
       </c>
     </row>
     <row r="544" spans="1:3" x14ac:dyDescent="0.25">
@@ -5648,9 +6107,9 @@
         <f>INDEX(B525:B532,MATCH(A544,A525:A532,0))</f>
         <v>8</v>
       </c>
-      <c r="C544">
+      <c r="C544" t="str">
         <f>INDEX(C525:C532,MATCH(A544,A525:A532,0))</f>
-        <v>0</v>
+        <v>YES</v>
       </c>
     </row>
     <row r="545" spans="1:3" x14ac:dyDescent="0.25">
@@ -5661,9 +6120,9 @@
         <f>INDEX(B525:B532,MATCH(A545,A525:A532,0))</f>
         <v>6</v>
       </c>
-      <c r="C545">
+      <c r="C545" t="str">
         <f>INDEX(C525:C532,MATCH(A545,A525:A532,0))</f>
-        <v>0</v>
+        <v>YES</v>
       </c>
     </row>
     <row r="546" spans="1:3" x14ac:dyDescent="0.25">
@@ -5674,9 +6133,9 @@
         <f>INDEX(B525:B532,MATCH(A546,A525:A532,0))</f>
         <v>5</v>
       </c>
-      <c r="C546">
+      <c r="C546" t="str">
         <f>INDEX(C525:C532,MATCH(A546,A525:A532,0))</f>
-        <v>0</v>
+        <v>NO</v>
       </c>
     </row>
     <row r="548" spans="1:3" x14ac:dyDescent="0.25">
@@ -5709,6 +6168,9 @@
       <c r="B554">
         <v>1</v>
       </c>
+      <c r="C554" t="s">
+        <v>198</v>
+      </c>
     </row>
     <row r="555" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A555" t="s">
@@ -5717,6 +6179,9 @@
       <c r="B555">
         <v>2</v>
       </c>
+      <c r="C555" t="s">
+        <v>198</v>
+      </c>
     </row>
     <row r="556" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A556" t="s">
@@ -5725,6 +6190,9 @@
       <c r="B556">
         <v>3</v>
       </c>
+      <c r="C556" t="s">
+        <v>199</v>
+      </c>
     </row>
     <row r="557" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A557" t="s">
@@ -5733,6 +6201,9 @@
       <c r="B557">
         <v>4</v>
       </c>
+      <c r="C557" t="s">
+        <v>198</v>
+      </c>
     </row>
     <row r="558" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A558" t="s">
@@ -5741,6 +6212,9 @@
       <c r="B558">
         <v>5</v>
       </c>
+      <c r="C558" t="s">
+        <v>198</v>
+      </c>
     </row>
     <row r="559" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A559" t="s">
@@ -5749,6 +6223,9 @@
       <c r="B559">
         <v>6</v>
       </c>
+      <c r="C559" t="s">
+        <v>198</v>
+      </c>
     </row>
     <row r="560" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A560" t="s">
@@ -5757,6 +6234,9 @@
       <c r="B560">
         <v>7</v>
       </c>
+      <c r="C560" t="s">
+        <v>198</v>
+      </c>
     </row>
     <row r="561" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A561" t="s">
@@ -5765,6 +6245,9 @@
       <c r="B561">
         <v>8</v>
       </c>
+      <c r="C561" t="s">
+        <v>198</v>
+      </c>
     </row>
     <row r="563" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A563" t="s">
@@ -5778,9 +6261,9 @@
       <c r="B564">
         <v>1</v>
       </c>
-      <c r="C564">
+      <c r="C564" t="str">
         <f>C554</f>
-        <v>0</v>
+        <v>YES</v>
       </c>
     </row>
     <row r="565" spans="1:3" x14ac:dyDescent="0.25">
@@ -5790,9 +6273,9 @@
       <c r="B565">
         <v>2</v>
       </c>
-      <c r="C565">
+      <c r="C565" t="str">
         <f>C555</f>
-        <v>0</v>
+        <v>YES</v>
       </c>
     </row>
     <row r="567" spans="1:3" x14ac:dyDescent="0.25">
@@ -5808,9 +6291,9 @@
         <f>INDEX(B554:B561,MATCH(A568,A554:A561,0))</f>
         <v>2</v>
       </c>
-      <c r="C568">
+      <c r="C568" t="str">
         <f>INDEX(C554:C561,MATCH(A568,A554:A561,0))</f>
-        <v>0</v>
+        <v>YES</v>
       </c>
     </row>
     <row r="569" spans="1:3" x14ac:dyDescent="0.25">
@@ -5821,9 +6304,9 @@
         <f>INDEX(B554:B561,MATCH(A569,A554:A561,0))</f>
         <v>6</v>
       </c>
-      <c r="C569">
+      <c r="C569" t="str">
         <f>INDEX(C554:C561,MATCH(A569,A554:A561,0))</f>
-        <v>0</v>
+        <v>YES</v>
       </c>
     </row>
     <row r="570" spans="1:3" x14ac:dyDescent="0.25">
@@ -5834,9 +6317,9 @@
         <f>INDEX(B554:B561,MATCH(A570,A554:A561,0))</f>
         <v>3</v>
       </c>
-      <c r="C570">
+      <c r="C570" t="str">
         <f>INDEX(C554:C561,MATCH(A570,A554:A561,0))</f>
-        <v>0</v>
+        <v>NO</v>
       </c>
     </row>
     <row r="571" spans="1:3" x14ac:dyDescent="0.25">
@@ -5847,9 +6330,9 @@
         <f>INDEX(B554:B561,MATCH(A571,A554:A561,0))</f>
         <v>4</v>
       </c>
-      <c r="C571">
+      <c r="C571" t="str">
         <f>INDEX(C554:C561,MATCH(A571,A554:A561,0))</f>
-        <v>0</v>
+        <v>YES</v>
       </c>
     </row>
     <row r="572" spans="1:3" x14ac:dyDescent="0.25">
@@ -5860,9 +6343,9 @@
         <f>INDEX(B554:B561,MATCH(A572,A554:A561,0))</f>
         <v>8</v>
       </c>
-      <c r="C572">
+      <c r="C572" t="str">
         <f>INDEX(C554:C561,MATCH(A572,A554:A561,0))</f>
-        <v>0</v>
+        <v>YES</v>
       </c>
     </row>
     <row r="573" spans="1:3" x14ac:dyDescent="0.25">
@@ -5873,9 +6356,9 @@
         <f>INDEX(B554:B561,MATCH(A573,A554:A561,0))</f>
         <v>7</v>
       </c>
-      <c r="C573">
+      <c r="C573" t="str">
         <f>INDEX(C554:C561,MATCH(A573,A554:A561,0))</f>
-        <v>0</v>
+        <v>YES</v>
       </c>
     </row>
     <row r="574" spans="1:3" x14ac:dyDescent="0.25">
@@ -5886,9 +6369,9 @@
         <f>INDEX(B554:B561,MATCH(A574,A554:A561,0))</f>
         <v>1</v>
       </c>
-      <c r="C574">
+      <c r="C574" t="str">
         <f>INDEX(C554:C561,MATCH(A574,A554:A561,0))</f>
-        <v>0</v>
+        <v>YES</v>
       </c>
     </row>
     <row r="575" spans="1:3" x14ac:dyDescent="0.25">
@@ -5899,22 +6382,22 @@
         <f>INDEX(B554:B561,MATCH(A575,A554:A561,0))</f>
         <v>5</v>
       </c>
-      <c r="C575">
+      <c r="C575" t="str">
         <f>INDEX(C554:C561,MATCH(A575,A554:A561,0))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="577" spans="1:2" x14ac:dyDescent="0.25">
+        <v>YES</v>
+      </c>
+    </row>
+    <row r="577" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A577" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="579" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A579" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="581" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A581" t="s">
         <v>1</v>
       </c>
@@ -5922,76 +6405,100 @@
         <v>162</v>
       </c>
     </row>
-    <row r="582" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A582" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="583" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A583" t="s">
         <v>163</v>
       </c>
       <c r="B583">
         <v>1</v>
       </c>
-    </row>
-    <row r="584" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C583" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="584" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A584" t="s">
         <v>164</v>
       </c>
       <c r="B584">
         <v>2</v>
       </c>
-    </row>
-    <row r="585" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C584" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="585" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A585" t="s">
         <v>165</v>
       </c>
       <c r="B585">
         <v>3</v>
       </c>
-    </row>
-    <row r="586" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C585" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="586" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A586" t="s">
         <v>100</v>
       </c>
       <c r="B586">
         <v>4</v>
       </c>
-    </row>
-    <row r="587" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C586" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="587" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A587" t="s">
         <v>166</v>
       </c>
       <c r="B587">
         <v>5</v>
       </c>
-    </row>
-    <row r="588" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C587" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="588" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A588" t="s">
         <v>167</v>
       </c>
       <c r="B588">
         <v>6</v>
       </c>
-    </row>
-    <row r="589" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C588" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="589" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A589" t="s">
         <v>168</v>
       </c>
       <c r="B589">
         <v>7</v>
       </c>
-    </row>
-    <row r="590" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C589" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="590" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A590" t="s">
         <v>169</v>
       </c>
       <c r="B590">
         <v>8</v>
       </c>
-    </row>
-    <row r="592" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C590" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="592" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A592" t="s">
         <v>12</v>
       </c>
@@ -6003,9 +6510,9 @@
       <c r="B593">
         <v>1</v>
       </c>
-      <c r="C593">
+      <c r="C593" t="str">
         <f>C583</f>
-        <v>0</v>
+        <v>YES</v>
       </c>
     </row>
     <row r="594" spans="1:3" x14ac:dyDescent="0.25">
@@ -6015,9 +6522,9 @@
       <c r="B594">
         <v>2</v>
       </c>
-      <c r="C594">
+      <c r="C594" t="str">
         <f>C584</f>
-        <v>0</v>
+        <v>YES</v>
       </c>
     </row>
     <row r="596" spans="1:3" x14ac:dyDescent="0.25">
@@ -6033,9 +6540,9 @@
         <f>INDEX(B583:B590,MATCH(A597,A583:A590,0))</f>
         <v>2</v>
       </c>
-      <c r="C597">
+      <c r="C597" t="str">
         <f>INDEX(C583:C590,MATCH(A597,A583:A590,0))</f>
-        <v>0</v>
+        <v>YES</v>
       </c>
     </row>
     <row r="598" spans="1:3" x14ac:dyDescent="0.25">
@@ -6046,9 +6553,9 @@
         <f>INDEX(B583:B590,MATCH(A598,A583:A590,0))</f>
         <v>3</v>
       </c>
-      <c r="C598">
+      <c r="C598" t="str">
         <f>INDEX(C583:C590,MATCH(A598,A583:A590,0))</f>
-        <v>0</v>
+        <v>YES</v>
       </c>
     </row>
     <row r="599" spans="1:3" x14ac:dyDescent="0.25">
@@ -6059,9 +6566,9 @@
         <f>INDEX(B583:B590,MATCH(A599,A583:A590,0))</f>
         <v>4</v>
       </c>
-      <c r="C599">
+      <c r="C599" t="str">
         <f>INDEX(C583:C590,MATCH(A599,A583:A590,0))</f>
-        <v>0</v>
+        <v>NO</v>
       </c>
     </row>
     <row r="600" spans="1:3" x14ac:dyDescent="0.25">
@@ -6072,9 +6579,9 @@
         <f>INDEX(B583:B590,MATCH(A600,A583:A590,0))</f>
         <v>5</v>
       </c>
-      <c r="C600">
+      <c r="C600" t="str">
         <f>INDEX(C583:C590,MATCH(A600,A583:A590,0))</f>
-        <v>0</v>
+        <v>YES</v>
       </c>
     </row>
     <row r="601" spans="1:3" x14ac:dyDescent="0.25">
@@ -6085,9 +6592,9 @@
         <f>INDEX(B583:B590,MATCH(A601,A583:A590,0))</f>
         <v>1</v>
       </c>
-      <c r="C601">
+      <c r="C601" t="str">
         <f>INDEX(C583:C590,MATCH(A601,A583:A590,0))</f>
-        <v>0</v>
+        <v>YES</v>
       </c>
     </row>
     <row r="602" spans="1:3" x14ac:dyDescent="0.25">
@@ -6098,9 +6605,9 @@
         <f>INDEX(B583:B590,MATCH(A602,A583:A590,0))</f>
         <v>8</v>
       </c>
-      <c r="C602">
+      <c r="C602" t="str">
         <f>INDEX(C583:C590,MATCH(A602,A583:A590,0))</f>
-        <v>0</v>
+        <v>NO</v>
       </c>
     </row>
     <row r="603" spans="1:3" x14ac:dyDescent="0.25">
@@ -6111,9 +6618,9 @@
         <f>INDEX(B583:B590,MATCH(A603,A583:A590,0))</f>
         <v>6</v>
       </c>
-      <c r="C603">
+      <c r="C603" t="str">
         <f>INDEX(C583:C590,MATCH(A603,A583:A590,0))</f>
-        <v>0</v>
+        <v>YES</v>
       </c>
     </row>
     <row r="604" spans="1:3" x14ac:dyDescent="0.25">
@@ -6124,9 +6631,9 @@
         <f>INDEX(B583:B590,MATCH(A604,A583:A590,0))</f>
         <v>7</v>
       </c>
-      <c r="C604">
+      <c r="C604" t="str">
         <f>INDEX(C583:C590,MATCH(A604,A583:A590,0))</f>
-        <v>0</v>
+        <v>YES</v>
       </c>
     </row>
     <row r="606" spans="1:3" x14ac:dyDescent="0.25">
@@ -6159,6 +6666,9 @@
       <c r="B612">
         <v>1</v>
       </c>
+      <c r="C612" t="s">
+        <v>198</v>
+      </c>
     </row>
     <row r="613" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A613" t="s">
@@ -6167,6 +6677,9 @@
       <c r="B613">
         <v>2</v>
       </c>
+      <c r="C613" t="s">
+        <v>198</v>
+      </c>
     </row>
     <row r="614" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A614" t="s">
@@ -6175,6 +6688,9 @@
       <c r="B614">
         <v>3</v>
       </c>
+      <c r="C614" t="s">
+        <v>198</v>
+      </c>
     </row>
     <row r="615" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A615" t="s">
@@ -6183,6 +6699,9 @@
       <c r="B615">
         <v>4</v>
       </c>
+      <c r="C615" t="s">
+        <v>198</v>
+      </c>
     </row>
     <row r="616" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A616" t="s">
@@ -6191,6 +6710,9 @@
       <c r="B616">
         <v>5</v>
       </c>
+      <c r="C616" t="s">
+        <v>198</v>
+      </c>
     </row>
     <row r="617" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A617" t="s">
@@ -6199,6 +6721,9 @@
       <c r="B617">
         <v>6</v>
       </c>
+      <c r="C617" t="s">
+        <v>198</v>
+      </c>
     </row>
     <row r="618" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A618" t="s">
@@ -6207,6 +6732,9 @@
       <c r="B618">
         <v>7</v>
       </c>
+      <c r="C618" t="s">
+        <v>198</v>
+      </c>
     </row>
     <row r="619" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A619" t="s">
@@ -6215,6 +6743,9 @@
       <c r="B619">
         <v>8</v>
       </c>
+      <c r="C619" t="s">
+        <v>198</v>
+      </c>
     </row>
     <row r="621" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A621" t="s">
@@ -6228,9 +6759,9 @@
       <c r="B622">
         <v>1</v>
       </c>
-      <c r="C622">
+      <c r="C622" t="str">
         <f>C612</f>
-        <v>0</v>
+        <v>YES</v>
       </c>
     </row>
     <row r="623" spans="1:3" x14ac:dyDescent="0.25">
@@ -6240,9 +6771,9 @@
       <c r="B623">
         <v>2</v>
       </c>
-      <c r="C623">
+      <c r="C623" t="str">
         <f>C613</f>
-        <v>0</v>
+        <v>YES</v>
       </c>
     </row>
     <row r="625" spans="1:3" x14ac:dyDescent="0.25">
@@ -6258,9 +6789,9 @@
         <f>INDEX(B612:B619,MATCH(A626,A612:A619,0))</f>
         <v>7</v>
       </c>
-      <c r="C626">
+      <c r="C626" t="str">
         <f>INDEX(C612:C619,MATCH(A626,A612:A619,0))</f>
-        <v>0</v>
+        <v>YES</v>
       </c>
     </row>
     <row r="627" spans="1:3" x14ac:dyDescent="0.25">
@@ -6271,9 +6802,9 @@
         <f>INDEX(B612:B619,MATCH(A627,A612:A619,0))</f>
         <v>5</v>
       </c>
-      <c r="C627">
+      <c r="C627" t="str">
         <f>INDEX(C612:C619,MATCH(A627,A612:A619,0))</f>
-        <v>0</v>
+        <v>YES</v>
       </c>
     </row>
     <row r="628" spans="1:3" x14ac:dyDescent="0.25">
@@ -6284,9 +6815,9 @@
         <f>INDEX(B612:B619,MATCH(A628,A612:A619,0))</f>
         <v>1</v>
       </c>
-      <c r="C628">
+      <c r="C628" t="str">
         <f>INDEX(C612:C619,MATCH(A628,A612:A619,0))</f>
-        <v>0</v>
+        <v>YES</v>
       </c>
     </row>
     <row r="629" spans="1:3" x14ac:dyDescent="0.25">
@@ -6297,9 +6828,9 @@
         <f>INDEX(B612:B619,MATCH(A629,A612:A619,0))</f>
         <v>8</v>
       </c>
-      <c r="C629">
+      <c r="C629" t="str">
         <f>INDEX(C612:C619,MATCH(A629,A612:A619,0))</f>
-        <v>0</v>
+        <v>YES</v>
       </c>
     </row>
     <row r="630" spans="1:3" x14ac:dyDescent="0.25">
@@ -6310,9 +6841,9 @@
         <f>INDEX(B612:B619,MATCH(A630,A612:A619,0))</f>
         <v>3</v>
       </c>
-      <c r="C630">
+      <c r="C630" t="str">
         <f>INDEX(C612:C619,MATCH(A630,A612:A619,0))</f>
-        <v>0</v>
+        <v>YES</v>
       </c>
     </row>
     <row r="631" spans="1:3" x14ac:dyDescent="0.25">
@@ -6323,9 +6854,9 @@
         <f>INDEX(B612:B619,MATCH(A631,A612:A619,0))</f>
         <v>2</v>
       </c>
-      <c r="C631">
+      <c r="C631" t="str">
         <f>INDEX(C612:C619,MATCH(A631,A612:A619,0))</f>
-        <v>0</v>
+        <v>YES</v>
       </c>
     </row>
     <row r="632" spans="1:3" x14ac:dyDescent="0.25">
@@ -6336,9 +6867,9 @@
         <f>INDEX(B612:B619,MATCH(A632,A612:A619,0))</f>
         <v>6</v>
       </c>
-      <c r="C632">
+      <c r="C632" t="str">
         <f>INDEX(C612:C619,MATCH(A632,A612:A619,0))</f>
-        <v>0</v>
+        <v>YES</v>
       </c>
     </row>
     <row r="633" spans="1:3" x14ac:dyDescent="0.25">
@@ -6349,9 +6880,9 @@
         <f>INDEX(B612:B619,MATCH(A633,A612:A619,0))</f>
         <v>4</v>
       </c>
-      <c r="C633">
+      <c r="C633" t="str">
         <f>INDEX(C612:C619,MATCH(A633,A612:A619,0))</f>
-        <v>0</v>
+        <v>YES</v>
       </c>
     </row>
     <row r="635" spans="1:3" x14ac:dyDescent="0.25">
@@ -6384,6 +6915,9 @@
       <c r="B641">
         <v>1</v>
       </c>
+      <c r="C641" t="s">
+        <v>198</v>
+      </c>
     </row>
     <row r="642" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A642" t="s">
@@ -6392,6 +6926,9 @@
       <c r="B642">
         <v>2</v>
       </c>
+      <c r="C642" t="s">
+        <v>199</v>
+      </c>
     </row>
     <row r="643" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A643" t="s">
@@ -6400,6 +6937,9 @@
       <c r="B643">
         <v>3</v>
       </c>
+      <c r="C643" t="s">
+        <v>198</v>
+      </c>
     </row>
     <row r="644" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A644" t="s">
@@ -6408,6 +6948,9 @@
       <c r="B644">
         <v>4</v>
       </c>
+      <c r="C644" t="s">
+        <v>198</v>
+      </c>
     </row>
     <row r="645" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A645" t="s">
@@ -6416,6 +6959,9 @@
       <c r="B645">
         <v>5</v>
       </c>
+      <c r="C645" t="s">
+        <v>198</v>
+      </c>
     </row>
     <row r="646" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A646" t="s">
@@ -6424,6 +6970,9 @@
       <c r="B646">
         <v>6</v>
       </c>
+      <c r="C646" t="s">
+        <v>198</v>
+      </c>
     </row>
     <row r="647" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A647" t="s">
@@ -6432,6 +6981,9 @@
       <c r="B647">
         <v>7</v>
       </c>
+      <c r="C647" t="s">
+        <v>199</v>
+      </c>
     </row>
     <row r="648" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A648" t="s">
@@ -6440,6 +6992,9 @@
       <c r="B648">
         <v>8</v>
       </c>
+      <c r="C648" t="s">
+        <v>198</v>
+      </c>
     </row>
     <row r="650" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A650" t="s">
@@ -6453,9 +7008,9 @@
       <c r="B651">
         <v>1</v>
       </c>
-      <c r="C651">
+      <c r="C651" t="str">
         <f>C641</f>
-        <v>0</v>
+        <v>YES</v>
       </c>
     </row>
     <row r="652" spans="1:3" x14ac:dyDescent="0.25">
@@ -6465,9 +7020,9 @@
       <c r="B652">
         <v>2</v>
       </c>
-      <c r="C652">
+      <c r="C652" t="str">
         <f>C642</f>
-        <v>0</v>
+        <v>NO</v>
       </c>
     </row>
     <row r="654" spans="1:3" x14ac:dyDescent="0.25">
@@ -6483,9 +7038,9 @@
         <f>INDEX(B641:B648,MATCH(A655,A641:A648,0))</f>
         <v>6</v>
       </c>
-      <c r="C655">
+      <c r="C655" t="str">
         <f>INDEX(C641:C648,MATCH(A655,A641:A648,0))</f>
-        <v>0</v>
+        <v>YES</v>
       </c>
     </row>
     <row r="656" spans="1:3" x14ac:dyDescent="0.25">
@@ -6496,9 +7051,9 @@
         <f>INDEX(B641:B648,MATCH(A656,A641:A648,0))</f>
         <v>1</v>
       </c>
-      <c r="C656">
+      <c r="C656" t="str">
         <f>INDEX(C641:C648,MATCH(A656,A641:A648,0))</f>
-        <v>0</v>
+        <v>YES</v>
       </c>
     </row>
     <row r="657" spans="1:3" x14ac:dyDescent="0.25">
@@ -6509,9 +7064,9 @@
         <f>INDEX(B641:B648,MATCH(A657,A641:A648,0))</f>
         <v>5</v>
       </c>
-      <c r="C657">
+      <c r="C657" t="str">
         <f>INDEX(C641:C648,MATCH(A657,A641:A648,0))</f>
-        <v>0</v>
+        <v>YES</v>
       </c>
     </row>
     <row r="658" spans="1:3" x14ac:dyDescent="0.25">
@@ -6522,9 +7077,9 @@
         <f>INDEX(B641:B648,MATCH(A658,A641:A648,0))</f>
         <v>4</v>
       </c>
-      <c r="C658">
+      <c r="C658" t="str">
         <f>INDEX(C641:C648,MATCH(A658,A641:A648,0))</f>
-        <v>0</v>
+        <v>YES</v>
       </c>
     </row>
     <row r="659" spans="1:3" x14ac:dyDescent="0.25">
@@ -6535,9 +7090,9 @@
         <f>INDEX(B641:B648,MATCH(A659,A641:A648,0))</f>
         <v>8</v>
       </c>
-      <c r="C659">
+      <c r="C659" t="str">
         <f>INDEX(C641:C648,MATCH(A659,A641:A648,0))</f>
-        <v>0</v>
+        <v>YES</v>
       </c>
     </row>
     <row r="660" spans="1:3" x14ac:dyDescent="0.25">
@@ -6548,9 +7103,9 @@
         <f>INDEX(B641:B648,MATCH(A660,A641:A648,0))</f>
         <v>3</v>
       </c>
-      <c r="C660">
+      <c r="C660" t="str">
         <f>INDEX(C641:C648,MATCH(A660,A641:A648,0))</f>
-        <v>0</v>
+        <v>YES</v>
       </c>
     </row>
     <row r="661" spans="1:3" x14ac:dyDescent="0.25">
@@ -6561,9 +7116,9 @@
         <f>INDEX(B641:B648,MATCH(A661,A641:A648,0))</f>
         <v>7</v>
       </c>
-      <c r="C661">
+      <c r="C661" t="str">
         <f>INDEX(C641:C648,MATCH(A661,A641:A648,0))</f>
-        <v>0</v>
+        <v>NO</v>
       </c>
     </row>
     <row r="662" spans="1:3" x14ac:dyDescent="0.25">
@@ -6574,9 +7129,9 @@
         <f>INDEX(B641:B648,MATCH(A662,A641:A648,0))</f>
         <v>2</v>
       </c>
-      <c r="C662">
+      <c r="C662" t="str">
         <f>INDEX(C641:C648,MATCH(A662,A641:A648,0))</f>
-        <v>0</v>
+        <v>NO</v>
       </c>
     </row>
     <row r="664" spans="1:3" x14ac:dyDescent="0.25">
@@ -6609,6 +7164,9 @@
       <c r="B670">
         <v>1</v>
       </c>
+      <c r="C670" t="s">
+        <v>198</v>
+      </c>
     </row>
     <row r="671" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A671" t="s">
@@ -6617,6 +7175,9 @@
       <c r="B671">
         <v>2</v>
       </c>
+      <c r="C671" t="s">
+        <v>199</v>
+      </c>
     </row>
     <row r="672" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A672" t="s">
@@ -6625,6 +7186,9 @@
       <c r="B672">
         <v>3</v>
       </c>
+      <c r="C672" t="s">
+        <v>198</v>
+      </c>
     </row>
     <row r="673" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A673" t="s">
@@ -6633,6 +7197,9 @@
       <c r="B673">
         <v>4</v>
       </c>
+      <c r="C673" t="s">
+        <v>198</v>
+      </c>
     </row>
     <row r="674" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A674" t="s">
@@ -6641,6 +7208,9 @@
       <c r="B674">
         <v>5</v>
       </c>
+      <c r="C674" t="s">
+        <v>198</v>
+      </c>
     </row>
     <row r="675" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A675" t="s">
@@ -6649,6 +7219,9 @@
       <c r="B675">
         <v>6</v>
       </c>
+      <c r="C675" t="s">
+        <v>198</v>
+      </c>
     </row>
     <row r="676" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A676" t="s">
@@ -6657,6 +7230,9 @@
       <c r="B676">
         <v>7</v>
       </c>
+      <c r="C676" t="s">
+        <v>198</v>
+      </c>
     </row>
     <row r="677" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A677" t="s">
@@ -6665,6 +7241,9 @@
       <c r="B677">
         <v>8</v>
       </c>
+      <c r="C677" t="s">
+        <v>198</v>
+      </c>
     </row>
     <row r="679" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A679" t="s">
@@ -6678,9 +7257,9 @@
       <c r="B680">
         <v>1</v>
       </c>
-      <c r="C680">
+      <c r="C680" t="str">
         <f>C670</f>
-        <v>0</v>
+        <v>YES</v>
       </c>
     </row>
     <row r="681" spans="1:3" x14ac:dyDescent="0.25">
@@ -6690,9 +7269,9 @@
       <c r="B681">
         <v>2</v>
       </c>
-      <c r="C681">
+      <c r="C681" t="str">
         <f>C671</f>
-        <v>0</v>
+        <v>NO</v>
       </c>
     </row>
     <row r="683" spans="1:3" x14ac:dyDescent="0.25">
@@ -6708,9 +7287,9 @@
         <f>INDEX(B670:B677,MATCH(A684,A670:A677,0))</f>
         <v>3</v>
       </c>
-      <c r="C684">
+      <c r="C684" t="str">
         <f>INDEX(C670:C677,MATCH(A684,A670:A677,0))</f>
-        <v>0</v>
+        <v>YES</v>
       </c>
     </row>
     <row r="685" spans="1:3" x14ac:dyDescent="0.25">
@@ -6721,9 +7300,9 @@
         <f>INDEX(B670:B677,MATCH(A685,A670:A677,0))</f>
         <v>5</v>
       </c>
-      <c r="C685">
+      <c r="C685" t="str">
         <f>INDEX(C670:C677,MATCH(A685,A670:A677,0))</f>
-        <v>0</v>
+        <v>YES</v>
       </c>
     </row>
     <row r="686" spans="1:3" x14ac:dyDescent="0.25">
@@ -6734,9 +7313,9 @@
         <f>INDEX(B670:B677,MATCH(A686,A670:A677,0))</f>
         <v>6</v>
       </c>
-      <c r="C686">
+      <c r="C686" t="str">
         <f>INDEX(C670:C677,MATCH(A686,A670:A677,0))</f>
-        <v>0</v>
+        <v>YES</v>
       </c>
     </row>
     <row r="687" spans="1:3" x14ac:dyDescent="0.25">
@@ -6747,9 +7326,9 @@
         <f>INDEX(B670:B677,MATCH(A687,A670:A677,0))</f>
         <v>1</v>
       </c>
-      <c r="C687">
+      <c r="C687" t="str">
         <f>INDEX(C670:C677,MATCH(A687,A670:A677,0))</f>
-        <v>0</v>
+        <v>YES</v>
       </c>
     </row>
     <row r="688" spans="1:3" x14ac:dyDescent="0.25">
@@ -6760,9 +7339,9 @@
         <f>INDEX(B670:B677,MATCH(A688,A670:A677,0))</f>
         <v>4</v>
       </c>
-      <c r="C688">
+      <c r="C688" t="str">
         <f>INDEX(C670:C677,MATCH(A688,A670:A677,0))</f>
-        <v>0</v>
+        <v>YES</v>
       </c>
     </row>
     <row r="689" spans="1:3" x14ac:dyDescent="0.25">
@@ -6773,9 +7352,9 @@
         <f>INDEX(B670:B677,MATCH(A689,A670:A677,0))</f>
         <v>7</v>
       </c>
-      <c r="C689">
+      <c r="C689" t="str">
         <f>INDEX(C670:C677,MATCH(A689,A670:A677,0))</f>
-        <v>0</v>
+        <v>YES</v>
       </c>
     </row>
     <row r="690" spans="1:3" x14ac:dyDescent="0.25">
@@ -6786,9 +7365,9 @@
         <f>INDEX(B670:B677,MATCH(A690,A670:A677,0))</f>
         <v>8</v>
       </c>
-      <c r="C690">
+      <c r="C690" t="str">
         <f>INDEX(C670:C677,MATCH(A690,A670:A677,0))</f>
-        <v>0</v>
+        <v>YES</v>
       </c>
     </row>
     <row r="691" spans="1:3" x14ac:dyDescent="0.25">
@@ -6799,9 +7378,9 @@
         <f>INDEX(B670:B677,MATCH(A691,A670:A677,0))</f>
         <v>2</v>
       </c>
-      <c r="C691">
+      <c r="C691" t="str">
         <f>INDEX(C670:C677,MATCH(A691,A670:A677,0))</f>
-        <v>0</v>
+        <v>NO</v>
       </c>
     </row>
     <row r="693" spans="1:3" x14ac:dyDescent="0.25">
@@ -6834,6 +7413,9 @@
       <c r="B699">
         <v>1</v>
       </c>
+      <c r="C699" t="s">
+        <v>198</v>
+      </c>
     </row>
     <row r="700" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A700" t="s">
@@ -6842,6 +7424,9 @@
       <c r="B700">
         <v>2</v>
       </c>
+      <c r="C700" t="s">
+        <v>198</v>
+      </c>
     </row>
     <row r="701" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A701" t="s">
@@ -6850,6 +7435,9 @@
       <c r="B701">
         <v>3</v>
       </c>
+      <c r="C701" t="s">
+        <v>199</v>
+      </c>
     </row>
     <row r="702" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A702" t="s">
@@ -6858,6 +7446,9 @@
       <c r="B702">
         <v>4</v>
       </c>
+      <c r="C702" t="s">
+        <v>199</v>
+      </c>
     </row>
     <row r="703" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A703" t="s">
@@ -6866,6 +7457,9 @@
       <c r="B703">
         <v>5</v>
       </c>
+      <c r="C703" t="s">
+        <v>198</v>
+      </c>
     </row>
     <row r="704" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A704" t="s">
@@ -6874,6 +7468,9 @@
       <c r="B704">
         <v>6</v>
       </c>
+      <c r="C704" t="s">
+        <v>199</v>
+      </c>
     </row>
     <row r="705" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A705" t="s">
@@ -6882,6 +7479,9 @@
       <c r="B705">
         <v>7</v>
       </c>
+      <c r="C705" t="s">
+        <v>199</v>
+      </c>
     </row>
     <row r="706" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A706" t="s">
@@ -6890,6 +7490,9 @@
       <c r="B706">
         <v>8</v>
       </c>
+      <c r="C706" t="s">
+        <v>199</v>
+      </c>
     </row>
     <row r="708" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A708" t="s">
@@ -6903,9 +7506,9 @@
       <c r="B709">
         <v>1</v>
       </c>
-      <c r="C709">
+      <c r="C709" t="str">
         <f>C699</f>
-        <v>0</v>
+        <v>YES</v>
       </c>
     </row>
     <row r="710" spans="1:3" x14ac:dyDescent="0.25">
@@ -6915,9 +7518,9 @@
       <c r="B710">
         <v>2</v>
       </c>
-      <c r="C710">
+      <c r="C710" t="str">
         <f>C700</f>
-        <v>0</v>
+        <v>YES</v>
       </c>
     </row>
     <row r="712" spans="1:3" x14ac:dyDescent="0.25">
@@ -6933,9 +7536,9 @@
         <f>INDEX(B699:B706,MATCH(A713,A699:A706,0))</f>
         <v>1</v>
       </c>
-      <c r="C713">
+      <c r="C713" t="str">
         <f>INDEX(C699:C706,MATCH(A713,A699:A706,0))</f>
-        <v>0</v>
+        <v>YES</v>
       </c>
     </row>
     <row r="714" spans="1:3" x14ac:dyDescent="0.25">
@@ -6946,9 +7549,9 @@
         <f>INDEX(B699:B706,MATCH(A714,A699:A706,0))</f>
         <v>7</v>
       </c>
-      <c r="C714">
+      <c r="C714" t="str">
         <f>INDEX(C699:C706,MATCH(A714,A699:A706,0))</f>
-        <v>0</v>
+        <v>NO</v>
       </c>
     </row>
     <row r="715" spans="1:3" x14ac:dyDescent="0.25">
@@ -6959,9 +7562,9 @@
         <f>INDEX(B699:B706,MATCH(A715,A699:A706,0))</f>
         <v>5</v>
       </c>
-      <c r="C715">
+      <c r="C715" t="str">
         <f>INDEX(C699:C706,MATCH(A715,A699:A706,0))</f>
-        <v>0</v>
+        <v>YES</v>
       </c>
     </row>
     <row r="716" spans="1:3" x14ac:dyDescent="0.25">
@@ -6972,9 +7575,9 @@
         <f>INDEX(B699:B706,MATCH(A716,A699:A706,0))</f>
         <v>3</v>
       </c>
-      <c r="C716">
+      <c r="C716" t="str">
         <f>INDEX(C699:C706,MATCH(A716,A699:A706,0))</f>
-        <v>0</v>
+        <v>NO</v>
       </c>
     </row>
     <row r="717" spans="1:3" x14ac:dyDescent="0.25">
@@ -6985,9 +7588,9 @@
         <f>INDEX(B699:B706,MATCH(A717,A699:A706,0))</f>
         <v>4</v>
       </c>
-      <c r="C717">
+      <c r="C717" t="str">
         <f>INDEX(C699:C706,MATCH(A717,A699:A706,0))</f>
-        <v>0</v>
+        <v>NO</v>
       </c>
     </row>
     <row r="718" spans="1:3" x14ac:dyDescent="0.25">
@@ -6998,9 +7601,9 @@
         <f>INDEX(B699:B706,MATCH(A718,A699:A706,0))</f>
         <v>8</v>
       </c>
-      <c r="C718">
+      <c r="C718" t="str">
         <f>INDEX(C699:C706,MATCH(A718,A699:A706,0))</f>
-        <v>0</v>
+        <v>NO</v>
       </c>
     </row>
     <row r="719" spans="1:3" x14ac:dyDescent="0.25">
@@ -7011,9 +7614,9 @@
         <f>INDEX(B699:B706,MATCH(A719,A699:A706,0))</f>
         <v>2</v>
       </c>
-      <c r="C719">
+      <c r="C719" t="str">
         <f>INDEX(C699:C706,MATCH(A719,A699:A706,0))</f>
-        <v>0</v>
+        <v>YES</v>
       </c>
     </row>
     <row r="720" spans="1:3" x14ac:dyDescent="0.25">
@@ -7024,9 +7627,9 @@
         <f>INDEX(B699:B706,MATCH(A720,A699:A706,0))</f>
         <v>6</v>
       </c>
-      <c r="C720">
+      <c r="C720" t="str">
         <f>INDEX(C699:C706,MATCH(A720,A699:A706,0))</f>
-        <v>0</v>
+        <v>NO</v>
       </c>
     </row>
   </sheetData>
